--- a/BackTest/2020-01-15 BackTest AOA.xlsx
+++ b/BackTest/2020-01-15 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.891</v>
+        <v>1.886</v>
       </c>
       <c r="C2" t="n">
-        <v>1.891</v>
+        <v>1.886</v>
       </c>
       <c r="D2" t="n">
-        <v>1.891</v>
+        <v>1.886</v>
       </c>
       <c r="E2" t="n">
-        <v>1.891</v>
+        <v>1.886</v>
       </c>
       <c r="F2" t="n">
-        <v>10576.4146</v>
+        <v>14195.4397</v>
       </c>
       <c r="G2" t="n">
-        <v>1.895566666666667</v>
+        <v>1.895866666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>1.891</v>
       </c>
       <c r="C3" t="n">
-        <v>1.885</v>
+        <v>1.891</v>
       </c>
       <c r="D3" t="n">
         <v>1.891</v>
       </c>
       <c r="E3" t="n">
-        <v>1.885</v>
+        <v>1.891</v>
       </c>
       <c r="F3" t="n">
-        <v>412541.2515</v>
+        <v>10576.4146</v>
       </c>
       <c r="G3" t="n">
-        <v>1.895466666666667</v>
+        <v>1.895566666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.885</v>
+        <v>1.891</v>
       </c>
       <c r="C4" t="n">
         <v>1.885</v>
       </c>
       <c r="D4" t="n">
-        <v>1.885</v>
+        <v>1.891</v>
       </c>
       <c r="E4" t="n">
         <v>1.885</v>
       </c>
       <c r="F4" t="n">
-        <v>1085068.5</v>
+        <v>412541.2515</v>
       </c>
       <c r="G4" t="n">
-        <v>1.895066666666667</v>
+        <v>1.895466666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1.885</v>
       </c>
       <c r="C5" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="E5" t="n">
-        <v>1.88</v>
+        <v>1.885</v>
       </c>
       <c r="F5" t="n">
-        <v>2963043.88</v>
+        <v>1085068.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.895216666666667</v>
+        <v>1.895066666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.881</v>
+        <v>1.885</v>
       </c>
       <c r="C6" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="D6" t="n">
         <v>1.9</v>
       </c>
       <c r="E6" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="F6" t="n">
-        <v>3396306.88</v>
+        <v>2963043.88</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89505</v>
+        <v>1.895216666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="C7" t="n">
         <v>1.881</v>
@@ -620,10 +620,10 @@
         <v>1.881</v>
       </c>
       <c r="F7" t="n">
-        <v>1555450.88</v>
+        <v>3396306.88</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8949</v>
+        <v>1.89505</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="C8" t="n">
         <v>1.881</v>
       </c>
       <c r="D8" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="E8" t="n">
         <v>1.881</v>
       </c>
       <c r="F8" t="n">
-        <v>260000</v>
+        <v>1555450.88</v>
       </c>
       <c r="G8" t="n">
-        <v>1.89475</v>
+        <v>1.8949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="C9" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="D9" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="E9" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="F9" t="n">
-        <v>2355231.88</v>
+        <v>260000</v>
       </c>
       <c r="G9" t="n">
-        <v>1.894733333333334</v>
+        <v>1.89475</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="C10" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="D10" t="n">
         <v>1.899</v>
@@ -725,10 +725,10 @@
         <v>1.882</v>
       </c>
       <c r="F10" t="n">
-        <v>3053340.88</v>
+        <v>2355231.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1.89465</v>
+        <v>1.894733333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="C11" t="n">
         <v>1.882</v>
@@ -760,10 +760,10 @@
         <v>1.882</v>
       </c>
       <c r="F11" t="n">
-        <v>1196033</v>
+        <v>3053340.88</v>
       </c>
       <c r="G11" t="n">
-        <v>1.89435</v>
+        <v>1.89465</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.883</v>
+        <v>1.899</v>
       </c>
       <c r="C12" t="n">
-        <v>1.851</v>
+        <v>1.882</v>
       </c>
       <c r="D12" t="n">
-        <v>1.883</v>
+        <v>1.899</v>
       </c>
       <c r="E12" t="n">
-        <v>1.851</v>
+        <v>1.882</v>
       </c>
       <c r="F12" t="n">
-        <v>9002738.4376</v>
+        <v>1196033</v>
       </c>
       <c r="G12" t="n">
-        <v>1.893366666666667</v>
+        <v>1.89435</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.877</v>
+        <v>1.883</v>
       </c>
       <c r="C13" t="n">
-        <v>1.877</v>
+        <v>1.851</v>
       </c>
       <c r="D13" t="n">
-        <v>1.877</v>
+        <v>1.883</v>
       </c>
       <c r="E13" t="n">
-        <v>1.877</v>
+        <v>1.851</v>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>9002738.4376</v>
       </c>
       <c r="G13" t="n">
-        <v>1.892916666666667</v>
+        <v>1.893366666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.869</v>
+        <v>1.877</v>
       </c>
       <c r="C14" t="n">
-        <v>1.869</v>
+        <v>1.877</v>
       </c>
       <c r="D14" t="n">
-        <v>1.869</v>
+        <v>1.877</v>
       </c>
       <c r="E14" t="n">
-        <v>1.869</v>
+        <v>1.877</v>
       </c>
       <c r="F14" t="n">
-        <v>75500</v>
+        <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>1.8923</v>
+        <v>1.892916666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.877</v>
+        <v>1.869</v>
       </c>
       <c r="C15" t="n">
-        <v>1.877</v>
+        <v>1.869</v>
       </c>
       <c r="D15" t="n">
-        <v>1.877</v>
+        <v>1.869</v>
       </c>
       <c r="E15" t="n">
-        <v>1.877</v>
+        <v>1.869</v>
       </c>
       <c r="F15" t="n">
-        <v>80000</v>
+        <v>75500</v>
       </c>
       <c r="G15" t="n">
-        <v>1.891783333333333</v>
+        <v>1.8923</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.898</v>
+        <v>1.877</v>
       </c>
       <c r="C16" t="n">
-        <v>1.881</v>
+        <v>1.877</v>
       </c>
       <c r="D16" t="n">
-        <v>1.898</v>
+        <v>1.877</v>
       </c>
       <c r="E16" t="n">
-        <v>1.881</v>
+        <v>1.877</v>
       </c>
       <c r="F16" t="n">
-        <v>3880084.88</v>
+        <v>80000</v>
       </c>
       <c r="G16" t="n">
-        <v>1.891666666666667</v>
+        <v>1.891783333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>1.898</v>
       </c>
       <c r="C17" t="n">
-        <v>1.898</v>
+        <v>1.881</v>
       </c>
       <c r="D17" t="n">
         <v>1.898</v>
@@ -970,10 +970,10 @@
         <v>1.881</v>
       </c>
       <c r="F17" t="n">
-        <v>3273964.88</v>
+        <v>3880084.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1.891516666666667</v>
+        <v>1.891666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="C18" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="D18" t="n">
         <v>1.898</v>
@@ -1005,10 +1005,10 @@
         <v>1.881</v>
       </c>
       <c r="F18" t="n">
-        <v>1068133.04</v>
+        <v>3273964.88</v>
       </c>
       <c r="G18" t="n">
-        <v>1.8914</v>
+        <v>1.891516666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.897</v>
+        <v>1.881</v>
       </c>
       <c r="C19" t="n">
-        <v>1.897</v>
+        <v>1.881</v>
       </c>
       <c r="D19" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="E19" t="n">
         <v>1.881</v>
       </c>
       <c r="F19" t="n">
-        <v>1666254.88</v>
+        <v>1068133.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1.891533333333334</v>
+        <v>1.8914</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.881</v>
+        <v>1.897</v>
       </c>
       <c r="C20" t="n">
-        <v>1.882</v>
+        <v>1.897</v>
       </c>
       <c r="D20" t="n">
         <v>1.897</v>
@@ -1075,10 +1075,10 @@
         <v>1.881</v>
       </c>
       <c r="F20" t="n">
-        <v>1258603</v>
+        <v>1666254.88</v>
       </c>
       <c r="G20" t="n">
-        <v>1.8911</v>
+        <v>1.891533333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.883</v>
+        <v>1.881</v>
       </c>
       <c r="C21" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="D21" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="E21" t="n">
-        <v>1.883</v>
+        <v>1.881</v>
       </c>
       <c r="F21" t="n">
-        <v>213841.4025</v>
+        <v>1258603</v>
       </c>
       <c r="G21" t="n">
-        <v>1.891</v>
+        <v>1.8911</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="C22" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="D22" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="E22" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="F22" t="n">
-        <v>238157.8351</v>
+        <v>213841.4025</v>
       </c>
       <c r="G22" t="n">
-        <v>1.890616666666667</v>
+        <v>1.891</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1.884</v>
       </c>
       <c r="F23" t="n">
-        <v>8801.4337</v>
+        <v>238157.8351</v>
       </c>
       <c r="G23" t="n">
-        <v>1.89055</v>
+        <v>1.890616666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>1.884</v>
       </c>
       <c r="F24" t="n">
-        <v>42000</v>
+        <v>8801.4337</v>
       </c>
       <c r="G24" t="n">
-        <v>1.890483333333333</v>
+        <v>1.89055</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>1.884</v>
       </c>
       <c r="F25" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="G25" t="n">
-        <v>1.890116666666667</v>
+        <v>1.890483333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>1.884</v>
       </c>
       <c r="F26" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G26" t="n">
-        <v>1.89005</v>
+        <v>1.890116666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>1.884</v>
       </c>
       <c r="F27" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="n">
-        <v>1.889983333333333</v>
+        <v>1.89005</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>1.884</v>
       </c>
       <c r="F28" t="n">
-        <v>130000</v>
+        <v>50000</v>
       </c>
       <c r="G28" t="n">
-        <v>1.889916666666666</v>
+        <v>1.889983333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>1.884</v>
       </c>
       <c r="C29" t="n">
-        <v>1.897</v>
+        <v>1.884</v>
       </c>
       <c r="D29" t="n">
-        <v>1.897</v>
+        <v>1.884</v>
       </c>
       <c r="E29" t="n">
         <v>1.884</v>
       </c>
       <c r="F29" t="n">
-        <v>11885.8404</v>
+        <v>130000</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88975</v>
+        <v>1.889916666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.897</v>
+        <v>1.884</v>
       </c>
       <c r="C30" t="n">
         <v>1.897</v>
@@ -1422,13 +1422,13 @@
         <v>1.897</v>
       </c>
       <c r="E30" t="n">
-        <v>1.897</v>
+        <v>1.884</v>
       </c>
       <c r="F30" t="n">
-        <v>531.2581</v>
+        <v>11885.8404</v>
       </c>
       <c r="G30" t="n">
-        <v>1.889866666666667</v>
+        <v>1.88975</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>1.897</v>
       </c>
       <c r="F31" t="n">
-        <v>9203.5028</v>
+        <v>531.2581</v>
       </c>
       <c r="G31" t="n">
-        <v>1.889983333333333</v>
+        <v>1.889866666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>1.897</v>
       </c>
       <c r="F32" t="n">
-        <v>796.4972</v>
+        <v>9203.5028</v>
       </c>
       <c r="G32" t="n">
-        <v>1.889816666666667</v>
+        <v>1.889983333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>1.897</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>796.4972</v>
       </c>
       <c r="G33" t="n">
-        <v>1.889933333333334</v>
+        <v>1.889816666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.885</v>
+        <v>1.897</v>
       </c>
       <c r="C34" t="n">
-        <v>1.885</v>
+        <v>1.897</v>
       </c>
       <c r="D34" t="n">
-        <v>1.885</v>
+        <v>1.897</v>
       </c>
       <c r="E34" t="n">
-        <v>1.885</v>
+        <v>1.897</v>
       </c>
       <c r="F34" t="n">
-        <v>7100</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="n">
-        <v>1.889816666666667</v>
+        <v>1.889933333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.897</v>
+        <v>1.885</v>
       </c>
       <c r="C35" t="n">
-        <v>1.897</v>
+        <v>1.885</v>
       </c>
       <c r="D35" t="n">
-        <v>1.897</v>
+        <v>1.885</v>
       </c>
       <c r="E35" t="n">
-        <v>1.897</v>
+        <v>1.885</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>7100</v>
       </c>
       <c r="G35" t="n">
-        <v>1.889666666666667</v>
+        <v>1.889816666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.887</v>
+        <v>1.897</v>
       </c>
       <c r="C36" t="n">
-        <v>1.887</v>
+        <v>1.897</v>
       </c>
       <c r="D36" t="n">
-        <v>1.887</v>
+        <v>1.897</v>
       </c>
       <c r="E36" t="n">
-        <v>1.887</v>
+        <v>1.897</v>
       </c>
       <c r="F36" t="n">
-        <v>5608.3701</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>1.889416666666667</v>
+        <v>1.889666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.897</v>
+        <v>1.887</v>
       </c>
       <c r="C37" t="n">
-        <v>1.897</v>
+        <v>1.887</v>
       </c>
       <c r="D37" t="n">
-        <v>1.897</v>
+        <v>1.887</v>
       </c>
       <c r="E37" t="n">
-        <v>1.897</v>
+        <v>1.887</v>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>5608.3701</v>
       </c>
       <c r="G37" t="n">
-        <v>1.889350000000001</v>
+        <v>1.889416666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.887</v>
+        <v>1.897</v>
       </c>
       <c r="C38" t="n">
         <v>1.897</v>
@@ -1702,13 +1702,13 @@
         <v>1.897</v>
       </c>
       <c r="E38" t="n">
-        <v>1.887</v>
+        <v>1.897</v>
       </c>
       <c r="F38" t="n">
-        <v>4199.0813</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>1.889283333333334</v>
+        <v>1.889350000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.895</v>
+        <v>1.887</v>
       </c>
       <c r="C39" t="n">
         <v>1.897</v>
@@ -1737,13 +1737,13 @@
         <v>1.897</v>
       </c>
       <c r="E39" t="n">
-        <v>1.895</v>
+        <v>1.887</v>
       </c>
       <c r="F39" t="n">
-        <v>7000</v>
+        <v>4199.0813</v>
       </c>
       <c r="G39" t="n">
-        <v>1.889216666666667</v>
+        <v>1.889283333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.883</v>
+        <v>1.895</v>
       </c>
       <c r="C40" t="n">
-        <v>1.882</v>
+        <v>1.897</v>
       </c>
       <c r="D40" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="E40" t="n">
-        <v>1.882</v>
+        <v>1.895</v>
       </c>
       <c r="F40" t="n">
-        <v>26342.8598</v>
+        <v>7000</v>
       </c>
       <c r="G40" t="n">
-        <v>1.888900000000001</v>
+        <v>1.889216666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="C41" t="n">
         <v>1.882</v>
       </c>
       <c r="D41" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="E41" t="n">
         <v>1.882</v>
       </c>
       <c r="F41" t="n">
-        <v>2447.5256</v>
+        <v>26342.8598</v>
       </c>
       <c r="G41" t="n">
-        <v>1.888683333333334</v>
+        <v>1.888900000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.896</v>
+        <v>1.882</v>
       </c>
       <c r="C42" t="n">
-        <v>1.896</v>
+        <v>1.882</v>
       </c>
       <c r="D42" t="n">
-        <v>1.896</v>
+        <v>1.882</v>
       </c>
       <c r="E42" t="n">
-        <v>1.896</v>
+        <v>1.882</v>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>2447.5256</v>
       </c>
       <c r="G42" t="n">
-        <v>1.888583333333334</v>
+        <v>1.888683333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>1.896</v>
       </c>
       <c r="F43" t="n">
-        <v>1758.5466</v>
+        <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>1.888600000000001</v>
+        <v>1.888583333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>1.896</v>
       </c>
       <c r="C44" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="D44" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="E44" t="n">
         <v>1.896</v>
       </c>
       <c r="F44" t="n">
-        <v>4738.2619</v>
+        <v>1758.5466</v>
       </c>
       <c r="G44" t="n">
-        <v>1.888516666666668</v>
+        <v>1.888600000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>1.896</v>
       </c>
       <c r="C45" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="D45" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="E45" t="n">
         <v>1.896</v>
       </c>
       <c r="F45" t="n">
-        <v>443.999</v>
+        <v>4738.2619</v>
       </c>
       <c r="G45" t="n">
-        <v>1.888533333333335</v>
+        <v>1.888516666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="C46" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="D46" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="E46" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="F46" t="n">
-        <v>2522.6842</v>
+        <v>443.999</v>
       </c>
       <c r="G46" t="n">
-        <v>1.888416666666668</v>
+        <v>1.888533333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>1.895</v>
       </c>
       <c r="C47" t="n">
-        <v>1.896</v>
+        <v>1.895</v>
       </c>
       <c r="D47" t="n">
-        <v>1.896</v>
+        <v>1.895</v>
       </c>
       <c r="E47" t="n">
         <v>1.895</v>
       </c>
       <c r="F47" t="n">
-        <v>400000</v>
+        <v>2522.6842</v>
       </c>
       <c r="G47" t="n">
-        <v>1.888466666666668</v>
+        <v>1.888416666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.883</v>
+        <v>1.895</v>
       </c>
       <c r="C48" t="n">
-        <v>1.883</v>
+        <v>1.896</v>
       </c>
       <c r="D48" t="n">
-        <v>1.883</v>
+        <v>1.896</v>
       </c>
       <c r="E48" t="n">
-        <v>1.883</v>
+        <v>1.895</v>
       </c>
       <c r="F48" t="n">
-        <v>3308.0012</v>
+        <v>400000</v>
       </c>
       <c r="G48" t="n">
-        <v>1.888150000000001</v>
+        <v>1.888466666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>1.883</v>
       </c>
       <c r="F49" t="n">
-        <v>161909.8842</v>
+        <v>3308.0012</v>
       </c>
       <c r="G49" t="n">
-        <v>1.887833333333334</v>
+        <v>1.888150000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>1.883</v>
       </c>
       <c r="F50" t="n">
-        <v>1593.0751</v>
+        <v>161909.8842</v>
       </c>
       <c r="G50" t="n">
-        <v>1.887666666666668</v>
+        <v>1.887833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="C51" t="n">
         <v>1.883</v>
@@ -2157,13 +2157,13 @@
         <v>1.883</v>
       </c>
       <c r="E51" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="F51" t="n">
-        <v>115234.3304</v>
+        <v>1593.0751</v>
       </c>
       <c r="G51" t="n">
-        <v>1.887533333333334</v>
+        <v>1.887666666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="C52" t="n">
         <v>1.883</v>
@@ -2192,13 +2192,13 @@
         <v>1.883</v>
       </c>
       <c r="E52" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="F52" t="n">
-        <v>63569.7002</v>
+        <v>115234.3304</v>
       </c>
       <c r="G52" t="n">
-        <v>1.887400000000001</v>
+        <v>1.887533333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>1.883</v>
       </c>
       <c r="C53" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="D53" t="n">
         <v>1.883</v>
       </c>
       <c r="E53" t="n">
-        <v>1.84</v>
+        <v>1.883</v>
       </c>
       <c r="F53" t="n">
-        <v>2782461.3681</v>
+        <v>63569.7002</v>
       </c>
       <c r="G53" t="n">
-        <v>1.887250000000001</v>
+        <v>1.887400000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.852</v>
+        <v>1.883</v>
       </c>
       <c r="C54" t="n">
-        <v>1.861</v>
+        <v>1.882</v>
       </c>
       <c r="D54" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="E54" t="n">
-        <v>1.852</v>
+        <v>1.84</v>
       </c>
       <c r="F54" t="n">
-        <v>3383093.88</v>
+        <v>2782461.3681</v>
       </c>
       <c r="G54" t="n">
-        <v>1.886750000000001</v>
+        <v>1.887250000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.862</v>
+        <v>1.852</v>
       </c>
       <c r="C55" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="D55" t="n">
-        <v>1.862</v>
+        <v>1.882</v>
       </c>
       <c r="E55" t="n">
-        <v>1.862</v>
+        <v>1.852</v>
       </c>
       <c r="F55" t="n">
-        <v>83150.4593</v>
+        <v>3383093.88</v>
       </c>
       <c r="G55" t="n">
-        <v>1.886283333333334</v>
+        <v>1.886750000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.881</v>
+        <v>1.862</v>
       </c>
       <c r="C56" t="n">
-        <v>1.882</v>
+        <v>1.862</v>
       </c>
       <c r="D56" t="n">
-        <v>1.882</v>
+        <v>1.862</v>
       </c>
       <c r="E56" t="n">
-        <v>1.866</v>
+        <v>1.862</v>
       </c>
       <c r="F56" t="n">
-        <v>795128.4219</v>
+        <v>83150.4593</v>
       </c>
       <c r="G56" t="n">
-        <v>1.886150000000001</v>
+        <v>1.886283333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>1.881</v>
       </c>
       <c r="C57" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="D57" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="E57" t="n">
-        <v>1.867</v>
+        <v>1.866</v>
       </c>
       <c r="F57" t="n">
-        <v>795935</v>
+        <v>795128.4219</v>
       </c>
       <c r="G57" t="n">
-        <v>1.885816666666667</v>
+        <v>1.886150000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="C58" t="n">
-        <v>1.882</v>
+        <v>1.867</v>
       </c>
       <c r="D58" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="E58" t="n">
-        <v>1.882</v>
+        <v>1.867</v>
       </c>
       <c r="F58" t="n">
-        <v>909.2584000000001</v>
+        <v>795935</v>
       </c>
       <c r="G58" t="n">
-        <v>1.885733333333334</v>
+        <v>1.885816666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="C59" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="D59" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="E59" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="F59" t="n">
-        <v>686571.3567</v>
+        <v>909.2584000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>1.885416666666668</v>
+        <v>1.885733333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>1.867</v>
       </c>
       <c r="F60" t="n">
-        <v>10353.5084</v>
+        <v>686571.3567</v>
       </c>
       <c r="G60" t="n">
-        <v>1.885116666666668</v>
+        <v>1.885416666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>1.867</v>
       </c>
       <c r="C61" t="n">
-        <v>1.881</v>
+        <v>1.867</v>
       </c>
       <c r="D61" t="n">
-        <v>1.881</v>
+        <v>1.867</v>
       </c>
       <c r="E61" t="n">
         <v>1.867</v>
       </c>
       <c r="F61" t="n">
-        <v>362245.8408</v>
+        <v>10353.5084</v>
       </c>
       <c r="G61" t="n">
-        <v>1.885033333333334</v>
+        <v>1.885116666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="C62" t="n">
-        <v>1.883</v>
+        <v>1.881</v>
       </c>
       <c r="D62" t="n">
-        <v>1.883</v>
+        <v>1.881</v>
       </c>
       <c r="E62" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="F62" t="n">
-        <v>350.5046</v>
+        <v>362245.8408</v>
       </c>
       <c r="G62" t="n">
-        <v>1.884900000000001</v>
+        <v>1.885033333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="C63" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="D63" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="E63" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="F63" t="n">
-        <v>81350.6908</v>
+        <v>350.5046</v>
       </c>
       <c r="G63" t="n">
-        <v>1.884833333333334</v>
+        <v>1.884900000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>1.882</v>
       </c>
       <c r="C64" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="D64" t="n">
         <v>1.882</v>
       </c>
       <c r="E64" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="F64" t="n">
-        <v>4253.2774</v>
+        <v>81350.6908</v>
       </c>
       <c r="G64" t="n">
-        <v>1.884783333333334</v>
+        <v>1.884833333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="C65" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="D65" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="E65" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="F65" t="n">
-        <v>446979.7065</v>
+        <v>4253.2774</v>
       </c>
       <c r="G65" t="n">
-        <v>1.884466666666667</v>
+        <v>1.884783333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>1.881</v>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>446979.7065</v>
       </c>
       <c r="G66" t="n">
         <v>1.884466666666667</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="C67" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="D67" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="E67" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="F67" t="n">
-        <v>20628.1776</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="n">
-        <v>1.884483333333334</v>
+        <v>1.884466666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="C68" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="D68" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="E68" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="F68" t="n">
-        <v>1169.2289</v>
+        <v>20628.1776</v>
       </c>
       <c r="G68" t="n">
-        <v>1.884516666666667</v>
+        <v>1.884483333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>1.883</v>
       </c>
       <c r="F69" t="n">
-        <v>200000</v>
+        <v>1169.2289</v>
       </c>
       <c r="G69" t="n">
-        <v>1.884250000000001</v>
+        <v>1.884516666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>1.883</v>
       </c>
       <c r="C70" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="D70" t="n">
         <v>1.883</v>
       </c>
       <c r="E70" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="F70" t="n">
-        <v>397535.7177</v>
+        <v>200000</v>
       </c>
       <c r="G70" t="n">
-        <v>1.884233333333334</v>
+        <v>1.884250000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="C71" t="n">
         <v>1.881</v>
       </c>
       <c r="D71" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="E71" t="n">
         <v>1.881</v>
       </c>
       <c r="F71" t="n">
-        <v>33435.9502</v>
+        <v>397535.7177</v>
       </c>
       <c r="G71" t="n">
-        <v>1.884216666666667</v>
+        <v>1.884233333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>1.881</v>
       </c>
       <c r="F72" t="n">
-        <v>3318.5367</v>
+        <v>33435.9502</v>
       </c>
       <c r="G72" t="n">
-        <v>1.884716666666667</v>
+        <v>1.884216666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="C73" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="D73" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="E73" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="F73" t="n">
-        <v>269.3262</v>
+        <v>3318.5367</v>
       </c>
       <c r="G73" t="n">
-        <v>1.884566666666667</v>
+        <v>1.884716666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="C74" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="D74" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="E74" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="F74" t="n">
-        <v>7707.7004</v>
+        <v>269.3262</v>
       </c>
       <c r="G74" t="n">
-        <v>1.884766666666667</v>
+        <v>1.884566666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>1.881</v>
       </c>
       <c r="F75" t="n">
-        <v>292.2996</v>
+        <v>7707.7004</v>
       </c>
       <c r="G75" t="n">
-        <v>1.884833333333334</v>
+        <v>1.884766666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>1.881</v>
       </c>
       <c r="F76" t="n">
-        <v>2000</v>
+        <v>292.2996</v>
       </c>
       <c r="G76" t="n">
         <v>1.884833333333334</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="C77" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="D77" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="E77" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="F77" t="n">
-        <v>7707.7004</v>
+        <v>2000</v>
       </c>
       <c r="G77" t="n">
-        <v>1.884333333333334</v>
+        <v>1.884833333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,19 +3093,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="C78" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="D78" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="E78" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>7707.7004</v>
       </c>
       <c r="G78" t="n">
         <v>1.884333333333334</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="C79" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="D79" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="E79" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="F79" t="n">
-        <v>914.3815</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="n">
-        <v>1.88405</v>
+        <v>1.884333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>1.88</v>
       </c>
       <c r="F80" t="n">
-        <v>113412.8328</v>
+        <v>914.3815</v>
       </c>
       <c r="G80" t="n">
-        <v>1.884016666666667</v>
+        <v>1.88405</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>1.88</v>
       </c>
       <c r="F81" t="n">
-        <v>1587.1672</v>
+        <v>113412.8328</v>
       </c>
       <c r="G81" t="n">
-        <v>1.883966666666667</v>
+        <v>1.884016666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>1.88</v>
       </c>
       <c r="F82" t="n">
-        <v>1311.45</v>
+        <v>1587.1672</v>
       </c>
       <c r="G82" t="n">
-        <v>1.8839</v>
+        <v>1.883966666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>1.88</v>
       </c>
       <c r="F83" t="n">
-        <v>8688.549999999999</v>
+        <v>1311.45</v>
       </c>
       <c r="G83" t="n">
-        <v>1.883833333333333</v>
+        <v>1.8839</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>1.88</v>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>8688.549999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>1.883766666666667</v>
+        <v>1.883833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>1.88</v>
       </c>
       <c r="F85" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="n">
-        <v>1.8837</v>
+        <v>1.883766666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>1.88</v>
       </c>
       <c r="F86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>1.883633333333333</v>
+        <v>1.8837</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>1.88</v>
       </c>
       <c r="F87" t="n">
-        <v>1014.9785</v>
+        <v>9000</v>
       </c>
       <c r="G87" t="n">
-        <v>1.883566666666666</v>
+        <v>1.883633333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>1.88</v>
       </c>
       <c r="F88" t="n">
-        <v>1985.0215</v>
+        <v>1014.9785</v>
       </c>
       <c r="G88" t="n">
-        <v>1.8835</v>
+        <v>1.883566666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>1.88</v>
       </c>
       <c r="F89" t="n">
-        <v>32000</v>
+        <v>1985.0215</v>
       </c>
       <c r="G89" t="n">
-        <v>1.883216666666666</v>
+        <v>1.8835</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="C90" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="D90" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="E90" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="F90" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="G90" t="n">
-        <v>1.882949999999999</v>
+        <v>1.883216666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="C91" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="D91" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="E91" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="F91" t="n">
-        <v>950405</v>
+        <v>9000</v>
       </c>
       <c r="G91" t="n">
-        <v>1.882466666666666</v>
+        <v>1.882949999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>1.868</v>
       </c>
       <c r="C92" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="D92" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="E92" t="n">
         <v>1.868</v>
       </c>
       <c r="F92" t="n">
-        <v>140998.5014</v>
+        <v>950405</v>
       </c>
       <c r="G92" t="n">
-        <v>1.882199999999999</v>
+        <v>1.882466666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="C93" t="n">
         <v>1.881</v>
@@ -3627,13 +3627,13 @@
         <v>1.881</v>
       </c>
       <c r="E93" t="n">
-        <v>1.881</v>
+        <v>1.868</v>
       </c>
       <c r="F93" t="n">
-        <v>2484.8485</v>
+        <v>140998.5014</v>
       </c>
       <c r="G93" t="n">
-        <v>1.881933333333332</v>
+        <v>1.882199999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>1.881</v>
       </c>
       <c r="F94" t="n">
-        <v>1776.1982</v>
+        <v>2484.8485</v>
       </c>
       <c r="G94" t="n">
-        <v>1.881866666666666</v>
+        <v>1.881933333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>1.881</v>
       </c>
       <c r="F95" t="n">
-        <v>1223.8018</v>
+        <v>1776.1982</v>
       </c>
       <c r="G95" t="n">
-        <v>1.881599999999999</v>
+        <v>1.881866666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="C96" t="n">
-        <v>1.867</v>
+        <v>1.881</v>
       </c>
       <c r="D96" t="n">
-        <v>1.868</v>
+        <v>1.881</v>
       </c>
       <c r="E96" t="n">
-        <v>1.867</v>
+        <v>1.881</v>
       </c>
       <c r="F96" t="n">
-        <v>87600.33</v>
+        <v>1223.8018</v>
       </c>
       <c r="G96" t="n">
-        <v>1.881266666666666</v>
+        <v>1.881599999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.88</v>
+        <v>1.868</v>
       </c>
       <c r="C97" t="n">
-        <v>1.88</v>
+        <v>1.867</v>
       </c>
       <c r="D97" t="n">
-        <v>1.88</v>
+        <v>1.868</v>
       </c>
       <c r="E97" t="n">
-        <v>1.88</v>
+        <v>1.867</v>
       </c>
       <c r="F97" t="n">
-        <v>935.7861</v>
+        <v>87600.33</v>
       </c>
       <c r="G97" t="n">
-        <v>1.880983333333332</v>
+        <v>1.881266666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.868</v>
+        <v>1.88</v>
       </c>
       <c r="C98" t="n">
-        <v>1.861</v>
+        <v>1.88</v>
       </c>
       <c r="D98" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="E98" t="n">
-        <v>1.852</v>
+        <v>1.88</v>
       </c>
       <c r="F98" t="n">
-        <v>1549184.76</v>
+        <v>935.7861</v>
       </c>
       <c r="G98" t="n">
-        <v>1.880383333333332</v>
+        <v>1.880983333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.879</v>
+        <v>1.868</v>
       </c>
       <c r="C99" t="n">
-        <v>1.879</v>
+        <v>1.861</v>
       </c>
       <c r="D99" t="n">
         <v>1.879</v>
       </c>
       <c r="E99" t="n">
-        <v>1.861</v>
+        <v>1.852</v>
       </c>
       <c r="F99" t="n">
-        <v>2783481.76</v>
+        <v>1549184.76</v>
       </c>
       <c r="G99" t="n">
-        <v>1.880083333333332</v>
+        <v>1.880383333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>1.879</v>
       </c>
       <c r="C100" t="n">
-        <v>1.862</v>
+        <v>1.879</v>
       </c>
       <c r="D100" t="n">
         <v>1.879</v>
       </c>
       <c r="E100" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="F100" t="n">
-        <v>2815464.88</v>
+        <v>2783481.76</v>
       </c>
       <c r="G100" t="n">
-        <v>1.879749999999998</v>
+        <v>1.880083333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>1.862</v>
       </c>
       <c r="F101" t="n">
-        <v>715154</v>
+        <v>2815464.88</v>
       </c>
       <c r="G101" t="n">
-        <v>1.879416666666665</v>
+        <v>1.879749999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>1.879</v>
       </c>
       <c r="C102" t="n">
-        <v>1.879</v>
+        <v>1.862</v>
       </c>
       <c r="D102" t="n">
         <v>1.879</v>
@@ -3945,10 +3945,10 @@
         <v>1.862</v>
       </c>
       <c r="F102" t="n">
-        <v>3401895.88</v>
+        <v>715154</v>
       </c>
       <c r="G102" t="n">
-        <v>1.879133333333332</v>
+        <v>1.879416666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.863</v>
+        <v>1.879</v>
       </c>
       <c r="C103" t="n">
-        <v>1.864</v>
+        <v>1.879</v>
       </c>
       <c r="D103" t="n">
         <v>1.879</v>
       </c>
       <c r="E103" t="n">
-        <v>1.863</v>
+        <v>1.862</v>
       </c>
       <c r="F103" t="n">
-        <v>1062982</v>
+        <v>3401895.88</v>
       </c>
       <c r="G103" t="n">
-        <v>1.878599999999998</v>
+        <v>1.879133333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.88</v>
+        <v>1.863</v>
       </c>
       <c r="C104" t="n">
-        <v>1.88</v>
+        <v>1.864</v>
       </c>
       <c r="D104" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="E104" t="n">
-        <v>1.88</v>
+        <v>1.863</v>
       </c>
       <c r="F104" t="n">
-        <v>572.1922</v>
+        <v>1062982</v>
       </c>
       <c r="G104" t="n">
-        <v>1.878316666666665</v>
+        <v>1.878599999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="C105" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="D105" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="E105" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="F105" t="n">
-        <v>1934.4157</v>
+        <v>572.1922</v>
       </c>
       <c r="G105" t="n">
-        <v>1.878016666666665</v>
+        <v>1.878316666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="C106" t="n">
         <v>1.878</v>
       </c>
       <c r="D106" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="E106" t="n">
         <v>1.878</v>
       </c>
       <c r="F106" t="n">
-        <v>105131.9654</v>
+        <v>1934.4157</v>
       </c>
       <c r="G106" t="n">
-        <v>1.877733333333332</v>
+        <v>1.878016666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>1.878</v>
       </c>
       <c r="F107" t="n">
-        <v>196435.3675</v>
+        <v>105131.9654</v>
       </c>
       <c r="G107" t="n">
-        <v>1.877433333333332</v>
+        <v>1.877733333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="C108" t="n">
-        <v>1.876</v>
+        <v>1.878</v>
       </c>
       <c r="D108" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="E108" t="n">
-        <v>1.876</v>
+        <v>1.878</v>
       </c>
       <c r="F108" t="n">
-        <v>5057.2174</v>
+        <v>196435.3675</v>
       </c>
       <c r="G108" t="n">
-        <v>1.877316666666665</v>
+        <v>1.877433333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.875</v>
+        <v>1.877</v>
       </c>
       <c r="C109" t="n">
-        <v>1.874</v>
+        <v>1.876</v>
       </c>
       <c r="D109" t="n">
-        <v>1.875</v>
+        <v>1.877</v>
       </c>
       <c r="E109" t="n">
-        <v>1.874</v>
+        <v>1.876</v>
       </c>
       <c r="F109" t="n">
-        <v>1509.5784</v>
+        <v>5057.2174</v>
       </c>
       <c r="G109" t="n">
-        <v>1.877166666666665</v>
+        <v>1.877316666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.878</v>
+        <v>1.875</v>
       </c>
       <c r="C110" t="n">
-        <v>1.878</v>
+        <v>1.874</v>
       </c>
       <c r="D110" t="n">
-        <v>1.878</v>
+        <v>1.875</v>
       </c>
       <c r="E110" t="n">
-        <v>1.878</v>
+        <v>1.874</v>
       </c>
       <c r="F110" t="n">
-        <v>2962.2587</v>
+        <v>1509.5784</v>
       </c>
       <c r="G110" t="n">
-        <v>1.877083333333332</v>
+        <v>1.877166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="C111" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="D111" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="E111" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="F111" t="n">
-        <v>1001.5442</v>
+        <v>2962.2587</v>
       </c>
       <c r="G111" t="n">
-        <v>1.876849999999999</v>
+        <v>1.877083333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.877</v>
+        <v>1.869</v>
       </c>
       <c r="C112" t="n">
-        <v>1.861</v>
+        <v>1.869</v>
       </c>
       <c r="D112" t="n">
-        <v>1.877</v>
+        <v>1.869</v>
       </c>
       <c r="E112" t="n">
-        <v>1.851</v>
+        <v>1.869</v>
       </c>
       <c r="F112" t="n">
-        <v>2099302.3307</v>
+        <v>1001.5442</v>
       </c>
       <c r="G112" t="n">
-        <v>1.876483333333332</v>
+        <v>1.876849999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.86</v>
+        <v>1.877</v>
       </c>
       <c r="C113" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="D113" t="n">
-        <v>1.86</v>
+        <v>1.877</v>
       </c>
       <c r="E113" t="n">
-        <v>1.86</v>
+        <v>1.851</v>
       </c>
       <c r="F113" t="n">
-        <v>38593.0532</v>
+        <v>2099302.3307</v>
       </c>
       <c r="G113" t="n">
-        <v>1.876116666666665</v>
+        <v>1.876483333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="C114" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="D114" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="E114" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F114" t="n">
         <v>38593.0532</v>
       </c>
       <c r="G114" t="n">
-        <v>1.876266666666665</v>
+        <v>1.876116666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="C115" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="D115" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="E115" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F115" t="n">
-        <v>138319.0894</v>
+        <v>38593.0532</v>
       </c>
       <c r="G115" t="n">
-        <v>1.876233333333332</v>
+        <v>1.876266666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.878</v>
+        <v>1.86</v>
       </c>
       <c r="C116" t="n">
-        <v>1.878</v>
+        <v>1.86</v>
       </c>
       <c r="D116" t="n">
-        <v>1.878</v>
+        <v>1.86</v>
       </c>
       <c r="E116" t="n">
-        <v>1.878</v>
+        <v>1.86</v>
       </c>
       <c r="F116" t="n">
-        <v>24878.0251</v>
+        <v>138319.0894</v>
       </c>
       <c r="G116" t="n">
-        <v>1.876166666666665</v>
+        <v>1.876233333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="C117" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="D117" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="E117" t="n">
-        <v>1.861</v>
+        <v>1.878</v>
       </c>
       <c r="F117" t="n">
-        <v>972817.88</v>
+        <v>24878.0251</v>
       </c>
       <c r="G117" t="n">
-        <v>1.876333333333332</v>
+        <v>1.876166666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.861</v>
+        <v>1.877</v>
       </c>
       <c r="C118" t="n">
-        <v>1.861</v>
+        <v>1.877</v>
       </c>
       <c r="D118" t="n">
         <v>1.877</v>
@@ -4505,10 +4505,10 @@
         <v>1.861</v>
       </c>
       <c r="F118" t="n">
-        <v>3322743.88</v>
+        <v>972817.88</v>
       </c>
       <c r="G118" t="n">
-        <v>1.875983333333332</v>
+        <v>1.876333333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.877</v>
+        <v>1.861</v>
       </c>
       <c r="C119" t="n">
         <v>1.861</v>
@@ -4540,10 +4540,10 @@
         <v>1.861</v>
       </c>
       <c r="F119" t="n">
-        <v>2951455.88</v>
+        <v>3322743.88</v>
       </c>
       <c r="G119" t="n">
-        <v>1.875883333333332</v>
+        <v>1.875983333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="C120" t="n">
-        <v>1.878</v>
+        <v>1.861</v>
       </c>
       <c r="D120" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="E120" t="n">
-        <v>1.878</v>
+        <v>1.861</v>
       </c>
       <c r="F120" t="n">
-        <v>35350.6829</v>
+        <v>2951455.88</v>
       </c>
       <c r="G120" t="n">
-        <v>1.876066666666665</v>
+        <v>1.875883333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="C121" t="n">
         <v>1.878</v>
@@ -4607,13 +4607,13 @@
         <v>1.878</v>
       </c>
       <c r="E121" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="F121" t="n">
-        <v>851593.9039</v>
+        <v>35350.6829</v>
       </c>
       <c r="G121" t="n">
-        <v>1.876016666666665</v>
+        <v>1.876066666666665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>1.877</v>
       </c>
       <c r="C122" t="n">
-        <v>1.868</v>
+        <v>1.878</v>
       </c>
       <c r="D122" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E122" t="n">
         <v>1.877</v>
       </c>
-      <c r="E122" t="n">
-        <v>1.868</v>
-      </c>
       <c r="F122" t="n">
-        <v>99067.4301</v>
+        <v>851593.9039</v>
       </c>
       <c r="G122" t="n">
-        <v>1.875766666666665</v>
+        <v>1.876016666666665</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.861</v>
+        <v>1.877</v>
       </c>
       <c r="C123" t="n">
-        <v>1.861</v>
+        <v>1.868</v>
       </c>
       <c r="D123" t="n">
-        <v>1.861</v>
+        <v>1.877</v>
       </c>
       <c r="E123" t="n">
-        <v>1.861</v>
+        <v>1.868</v>
       </c>
       <c r="F123" t="n">
-        <v>1005.5463</v>
+        <v>99067.4301</v>
       </c>
       <c r="G123" t="n">
-        <v>1.875433333333332</v>
+        <v>1.875766666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4709,16 +4709,16 @@
         <v>1.861</v>
       </c>
       <c r="D124" t="n">
-        <v>1.876</v>
+        <v>1.861</v>
       </c>
       <c r="E124" t="n">
         <v>1.861</v>
       </c>
       <c r="F124" t="n">
-        <v>1017952.1288</v>
+        <v>1005.5463</v>
       </c>
       <c r="G124" t="n">
-        <v>1.875083333333332</v>
+        <v>1.875433333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,10 +4738,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.876</v>
+        <v>1.861</v>
       </c>
       <c r="C125" t="n">
-        <v>1.876</v>
+        <v>1.861</v>
       </c>
       <c r="D125" t="n">
         <v>1.876</v>
@@ -4750,10 +4750,10 @@
         <v>1.861</v>
       </c>
       <c r="F125" t="n">
-        <v>2160844.76</v>
+        <v>1017952.1288</v>
       </c>
       <c r="G125" t="n">
-        <v>1.874999999999999</v>
+        <v>1.875083333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.877</v>
+        <v>1.876</v>
       </c>
       <c r="C126" t="n">
-        <v>1.877</v>
+        <v>1.876</v>
       </c>
       <c r="D126" t="n">
-        <v>1.877</v>
+        <v>1.876</v>
       </c>
       <c r="E126" t="n">
-        <v>1.877</v>
+        <v>1.861</v>
       </c>
       <c r="F126" t="n">
-        <v>2368.8886</v>
+        <v>2160844.76</v>
       </c>
       <c r="G126" t="n">
-        <v>1.874933333333332</v>
+        <v>1.874999999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="C127" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="D127" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="E127" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="F127" t="n">
-        <v>2568.2329</v>
+        <v>2368.8886</v>
       </c>
       <c r="G127" t="n">
-        <v>1.874833333333332</v>
+        <v>1.874933333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>1.876</v>
       </c>
       <c r="F128" t="n">
-        <v>14816.7587</v>
+        <v>2568.2329</v>
       </c>
       <c r="G128" t="n">
-        <v>1.874716666666665</v>
+        <v>1.874833333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.861</v>
+        <v>1.876</v>
       </c>
       <c r="C129" t="n">
-        <v>1.861</v>
+        <v>1.876</v>
       </c>
       <c r="D129" t="n">
-        <v>1.861</v>
+        <v>1.876</v>
       </c>
       <c r="E129" t="n">
-        <v>1.861</v>
+        <v>1.876</v>
       </c>
       <c r="F129" t="n">
-        <v>100485</v>
+        <v>14816.7587</v>
       </c>
       <c r="G129" t="n">
-        <v>1.874349999999999</v>
+        <v>1.874716666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>1.861</v>
       </c>
       <c r="F130" t="n">
-        <v>1206779.7619</v>
+        <v>100485</v>
       </c>
       <c r="G130" t="n">
-        <v>1.874016666666666</v>
+        <v>1.874349999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.863</v>
+        <v>1.861</v>
       </c>
       <c r="C131" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="D131" t="n">
-        <v>1.863</v>
+        <v>1.861</v>
       </c>
       <c r="E131" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="F131" t="n">
-        <v>151000</v>
+        <v>1206779.7619</v>
       </c>
       <c r="G131" t="n">
-        <v>1.873699999999999</v>
+        <v>1.874016666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.862</v>
+        <v>1.863</v>
       </c>
       <c r="C132" t="n">
         <v>1.862</v>
       </c>
       <c r="D132" t="n">
-        <v>1.862</v>
+        <v>1.863</v>
       </c>
       <c r="E132" t="n">
         <v>1.862</v>
       </c>
       <c r="F132" t="n">
-        <v>100000</v>
+        <v>151000</v>
       </c>
       <c r="G132" t="n">
-        <v>1.873383333333332</v>
+        <v>1.873699999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.875</v>
+        <v>1.862</v>
       </c>
       <c r="C133" t="n">
-        <v>1.875</v>
+        <v>1.862</v>
       </c>
       <c r="D133" t="n">
-        <v>1.875</v>
+        <v>1.862</v>
       </c>
       <c r="E133" t="n">
-        <v>1.875</v>
+        <v>1.862</v>
       </c>
       <c r="F133" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G133" t="n">
-        <v>1.873499999999999</v>
+        <v>1.873383333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>30000</v>
       </c>
       <c r="G134" t="n">
-        <v>1.873399999999999</v>
+        <v>1.873499999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>1.875</v>
       </c>
       <c r="F135" t="n">
-        <v>1274.9566</v>
+        <v>30000</v>
       </c>
       <c r="G135" t="n">
-        <v>1.873299999999999</v>
+        <v>1.873399999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="C136" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="D136" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="E136" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="F136" t="n">
-        <v>79843.03909999999</v>
+        <v>1274.9566</v>
       </c>
       <c r="G136" t="n">
-        <v>1.873183333333332</v>
+        <v>1.873299999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.863</v>
+        <v>1.874</v>
       </c>
       <c r="C137" t="n">
-        <v>1.863</v>
+        <v>1.874</v>
       </c>
       <c r="D137" t="n">
-        <v>1.863</v>
+        <v>1.874</v>
       </c>
       <c r="E137" t="n">
-        <v>1.863</v>
+        <v>1.874</v>
       </c>
       <c r="F137" t="n">
         <v>79843.03909999999</v>
       </c>
       <c r="G137" t="n">
-        <v>1.873099999999999</v>
+        <v>1.873183333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.864</v>
+        <v>1.863</v>
       </c>
       <c r="C138" t="n">
         <v>1.863</v>
       </c>
       <c r="D138" t="n">
-        <v>1.864</v>
+        <v>1.863</v>
       </c>
       <c r="E138" t="n">
         <v>1.863</v>
       </c>
       <c r="F138" t="n">
-        <v>1939497.523</v>
+        <v>79843.03909999999</v>
       </c>
       <c r="G138" t="n">
-        <v>1.872799999999999</v>
+        <v>1.873099999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.865</v>
+        <v>1.864</v>
       </c>
       <c r="C139" t="n">
         <v>1.863</v>
       </c>
       <c r="D139" t="n">
-        <v>1.865</v>
+        <v>1.864</v>
       </c>
       <c r="E139" t="n">
         <v>1.863</v>
       </c>
       <c r="F139" t="n">
-        <v>334147.9042</v>
+        <v>1939497.523</v>
       </c>
       <c r="G139" t="n">
-        <v>1.872516666666665</v>
+        <v>1.872799999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.862</v>
+        <v>1.865</v>
       </c>
       <c r="C140" t="n">
-        <v>1.862</v>
+        <v>1.863</v>
       </c>
       <c r="D140" t="n">
-        <v>1.862</v>
+        <v>1.865</v>
       </c>
       <c r="E140" t="n">
-        <v>1.862</v>
+        <v>1.863</v>
       </c>
       <c r="F140" t="n">
-        <v>122376.5715</v>
+        <v>334147.9042</v>
       </c>
       <c r="G140" t="n">
-        <v>1.872216666666666</v>
+        <v>1.872516666666665</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>1.862</v>
       </c>
       <c r="F141" t="n">
-        <v>54071.5292</v>
+        <v>122376.5715</v>
       </c>
       <c r="G141" t="n">
-        <v>1.871916666666665</v>
+        <v>1.872216666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>1.862</v>
       </c>
       <c r="F142" t="n">
-        <v>214822.9444</v>
+        <v>54071.5292</v>
       </c>
       <c r="G142" t="n">
-        <v>1.871616666666665</v>
+        <v>1.871916666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.855</v>
+        <v>1.862</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85</v>
+        <v>1.862</v>
       </c>
       <c r="D143" t="n">
-        <v>1.855</v>
+        <v>1.862</v>
       </c>
       <c r="E143" t="n">
-        <v>1.85</v>
+        <v>1.862</v>
       </c>
       <c r="F143" t="n">
-        <v>401033.0658</v>
+        <v>214822.9444</v>
       </c>
       <c r="G143" t="n">
-        <v>1.871116666666665</v>
+        <v>1.871616666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.861</v>
+        <v>1.855</v>
       </c>
       <c r="C144" t="n">
-        <v>1.861</v>
+        <v>1.85</v>
       </c>
       <c r="D144" t="n">
-        <v>1.861</v>
+        <v>1.855</v>
       </c>
       <c r="E144" t="n">
-        <v>1.861</v>
+        <v>1.85</v>
       </c>
       <c r="F144" t="n">
-        <v>771.7353000000001</v>
+        <v>401033.0658</v>
       </c>
       <c r="G144" t="n">
-        <v>1.870799999999999</v>
+        <v>1.871116666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5447,13 +5447,13 @@
         <v>1.861</v>
       </c>
       <c r="E145" t="n">
-        <v>1.85</v>
+        <v>1.861</v>
       </c>
       <c r="F145" t="n">
-        <v>770730.7517</v>
+        <v>771.7353000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>1.870483333333332</v>
+        <v>1.870799999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5476,19 @@
         <v>1.861</v>
       </c>
       <c r="C146" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="D146" t="n">
         <v>1.861</v>
       </c>
       <c r="E146" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="F146" t="n">
-        <v>692337.4493</v>
+        <v>770730.7517</v>
       </c>
       <c r="G146" t="n">
-        <v>1.870149999999999</v>
+        <v>1.870483333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,10 +5508,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C147" t="n">
         <v>1.86</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.861</v>
       </c>
       <c r="D147" t="n">
         <v>1.861</v>
@@ -5520,10 +5520,10 @@
         <v>1.86</v>
       </c>
       <c r="F147" t="n">
-        <v>79945.96030000001</v>
+        <v>692337.4493</v>
       </c>
       <c r="G147" t="n">
-        <v>1.869833333333333</v>
+        <v>1.870149999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,10 +5543,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C148" t="n">
         <v>1.861</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.86</v>
       </c>
       <c r="D148" t="n">
         <v>1.861</v>
@@ -5555,10 +5555,10 @@
         <v>1.86</v>
       </c>
       <c r="F148" t="n">
-        <v>1301.7353</v>
+        <v>79945.96030000001</v>
       </c>
       <c r="G148" t="n">
-        <v>1.869499999999999</v>
+        <v>1.869833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>1.861</v>
       </c>
       <c r="C149" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="D149" t="n">
         <v>1.861</v>
       </c>
       <c r="E149" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="F149" t="n">
-        <v>1080</v>
+        <v>1301.7353</v>
       </c>
       <c r="G149" t="n">
-        <v>1.869183333333333</v>
+        <v>1.869499999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>1.861</v>
       </c>
       <c r="C150" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="D150" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="E150" t="n">
         <v>1.861</v>
       </c>
       <c r="F150" t="n">
-        <v>412603.996</v>
+        <v>1080</v>
       </c>
       <c r="G150" t="n">
-        <v>1.868866666666666</v>
+        <v>1.869183333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="C151" t="n">
         <v>1.862</v>
@@ -5657,13 +5657,13 @@
         <v>1.862</v>
       </c>
       <c r="E151" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="F151" t="n">
-        <v>107976.5982</v>
+        <v>412603.996</v>
       </c>
       <c r="G151" t="n">
-        <v>1.868766666666666</v>
+        <v>1.868866666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>1.862</v>
       </c>
       <c r="F152" t="n">
-        <v>21947.0838</v>
+        <v>107976.5982</v>
       </c>
       <c r="G152" t="n">
-        <v>1.868449999999999</v>
+        <v>1.868766666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5727,13 +5727,13 @@
         <v>1.862</v>
       </c>
       <c r="E153" t="n">
-        <v>1.861</v>
+        <v>1.862</v>
       </c>
       <c r="F153" t="n">
-        <v>1349398.1499</v>
+        <v>21947.0838</v>
       </c>
       <c r="G153" t="n">
-        <v>1.868133333333333</v>
+        <v>1.868449999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.875</v>
+        <v>1.862</v>
       </c>
       <c r="C154" t="n">
-        <v>1.875</v>
+        <v>1.862</v>
       </c>
       <c r="D154" t="n">
-        <v>1.875</v>
+        <v>1.862</v>
       </c>
       <c r="E154" t="n">
-        <v>1.875</v>
+        <v>1.861</v>
       </c>
       <c r="F154" t="n">
-        <v>2944</v>
+        <v>1349398.1499</v>
       </c>
       <c r="G154" t="n">
-        <v>1.868033333333333</v>
+        <v>1.868133333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>1.875</v>
       </c>
       <c r="F155" t="n">
-        <v>801</v>
+        <v>2944</v>
       </c>
       <c r="G155" t="n">
-        <v>1.867933333333333</v>
+        <v>1.868033333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>1.875</v>
       </c>
       <c r="F156" t="n">
-        <v>311</v>
+        <v>801</v>
       </c>
       <c r="G156" t="n">
-        <v>1.868066666666666</v>
+        <v>1.867933333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>1.875</v>
       </c>
       <c r="F157" t="n">
-        <v>905</v>
+        <v>311</v>
       </c>
       <c r="G157" t="n">
-        <v>1.867983333333332</v>
+        <v>1.868066666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>1.875</v>
       </c>
       <c r="F158" t="n">
-        <v>419664.5333333333</v>
+        <v>905</v>
       </c>
       <c r="G158" t="n">
-        <v>1.868216666666666</v>
+        <v>1.867983333333332</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.866</v>
+        <v>1.875</v>
       </c>
       <c r="D159" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="E159" t="n">
-        <v>1.866</v>
+        <v>1.875</v>
       </c>
       <c r="F159" t="n">
-        <v>1787.1177</v>
+        <v>419664.5333333333</v>
       </c>
       <c r="G159" t="n">
-        <v>1.867999999999999</v>
+        <v>1.868216666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="C160" t="n">
-        <v>1.875</v>
+        <v>1.866</v>
       </c>
       <c r="D160" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="E160" t="n">
-        <v>1.875</v>
+        <v>1.866</v>
       </c>
       <c r="F160" t="n">
-        <v>27044</v>
+        <v>1787.1177</v>
       </c>
       <c r="G160" t="n">
-        <v>1.868216666666666</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.873</v>
+        <v>1.875</v>
       </c>
       <c r="C161" t="n">
-        <v>1.873</v>
+        <v>1.875</v>
       </c>
       <c r="D161" t="n">
-        <v>1.873</v>
+        <v>1.875</v>
       </c>
       <c r="E161" t="n">
-        <v>1.873</v>
+        <v>1.875</v>
       </c>
       <c r="F161" t="n">
-        <v>299</v>
+        <v>27044</v>
       </c>
       <c r="G161" t="n">
-        <v>1.868399999999999</v>
+        <v>1.868216666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="C162" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="D162" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="E162" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="F162" t="n">
-        <v>444</v>
+        <v>299</v>
       </c>
       <c r="G162" t="n">
-        <v>1.868249999999999</v>
+        <v>1.868399999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.876</v>
+        <v>1.87</v>
       </c>
       <c r="C163" t="n">
-        <v>1.875</v>
+        <v>1.87</v>
       </c>
       <c r="D163" t="n">
-        <v>1.876</v>
+        <v>1.87</v>
       </c>
       <c r="E163" t="n">
-        <v>1.875</v>
+        <v>1.87</v>
       </c>
       <c r="F163" t="n">
-        <v>39609.88</v>
+        <v>444</v>
       </c>
       <c r="G163" t="n">
-        <v>1.868433333333333</v>
+        <v>1.868249999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.868</v>
+        <v>1.876</v>
       </c>
       <c r="C164" t="n">
-        <v>1.868</v>
+        <v>1.875</v>
       </c>
       <c r="D164" t="n">
-        <v>1.868</v>
+        <v>1.876</v>
       </c>
       <c r="E164" t="n">
-        <v>1.868</v>
+        <v>1.875</v>
       </c>
       <c r="F164" t="n">
-        <v>2434.7196</v>
+        <v>39609.88</v>
       </c>
       <c r="G164" t="n">
-        <v>1.868233333333333</v>
+        <v>1.868433333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6141,19 +6141,19 @@
         <v>1.868</v>
       </c>
       <c r="C165" t="n">
-        <v>1.851</v>
+        <v>1.868</v>
       </c>
       <c r="D165" t="n">
-        <v>1.876</v>
+        <v>1.868</v>
       </c>
       <c r="E165" t="n">
-        <v>1.85</v>
+        <v>1.868</v>
       </c>
       <c r="F165" t="n">
-        <v>3445535.8202</v>
+        <v>2434.7196</v>
       </c>
       <c r="G165" t="n">
-        <v>1.867783333333332</v>
+        <v>1.868233333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.875</v>
+        <v>1.868</v>
       </c>
       <c r="C166" t="n">
-        <v>1.875</v>
+        <v>1.851</v>
       </c>
       <c r="D166" t="n">
-        <v>1.875</v>
+        <v>1.876</v>
       </c>
       <c r="E166" t="n">
-        <v>1.851</v>
+        <v>1.85</v>
       </c>
       <c r="F166" t="n">
-        <v>2865126.76</v>
+        <v>3445535.8202</v>
       </c>
       <c r="G166" t="n">
-        <v>1.867733333333333</v>
+        <v>1.867783333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6217,13 +6217,13 @@
         <v>1.875</v>
       </c>
       <c r="E167" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="F167" t="n">
-        <v>2293846.88</v>
+        <v>2865126.76</v>
       </c>
       <c r="G167" t="n">
-        <v>1.867683333333332</v>
+        <v>1.867733333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,19 +6243,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="C168" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="D168" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="E168" t="n">
-        <v>1.876</v>
+        <v>1.852</v>
       </c>
       <c r="F168" t="n">
-        <v>1059.1882</v>
+        <v>2293846.88</v>
       </c>
       <c r="G168" t="n">
         <v>1.867683333333332</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.875</v>
+        <v>1.876</v>
       </c>
       <c r="C169" t="n">
-        <v>1.875</v>
+        <v>1.876</v>
       </c>
       <c r="D169" t="n">
-        <v>1.875</v>
+        <v>1.876</v>
       </c>
       <c r="E169" t="n">
-        <v>1.875</v>
+        <v>1.876</v>
       </c>
       <c r="F169" t="n">
-        <v>79259.8312</v>
+        <v>1059.1882</v>
       </c>
       <c r="G169" t="n">
-        <v>1.867699999999999</v>
+        <v>1.867683333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="C170" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="D170" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="E170" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="F170" t="n">
-        <v>1478.5956</v>
+        <v>79259.8312</v>
       </c>
       <c r="G170" t="n">
-        <v>1.867666666666666</v>
+        <v>1.867699999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>1.876</v>
       </c>
       <c r="F171" t="n">
-        <v>4610.9778</v>
+        <v>1478.5956</v>
       </c>
       <c r="G171" t="n">
-        <v>1.867783333333333</v>
+        <v>1.867666666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>1.876</v>
       </c>
       <c r="F172" t="n">
-        <v>910.4266</v>
+        <v>4610.9778</v>
       </c>
       <c r="G172" t="n">
-        <v>1.868033333333333</v>
+        <v>1.867783333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.88</v>
+        <v>1.876</v>
       </c>
       <c r="C173" t="n">
-        <v>1.88</v>
+        <v>1.876</v>
       </c>
       <c r="D173" t="n">
-        <v>1.88</v>
+        <v>1.876</v>
       </c>
       <c r="E173" t="n">
-        <v>1.88</v>
+        <v>1.876</v>
       </c>
       <c r="F173" t="n">
-        <v>862.2353000000001</v>
+        <v>910.4266</v>
       </c>
       <c r="G173" t="n">
-        <v>1.868366666666666</v>
+        <v>1.868033333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="C174" t="n">
-        <v>1.861</v>
+        <v>1.88</v>
       </c>
       <c r="D174" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="E174" t="n">
-        <v>1.861</v>
+        <v>1.88</v>
       </c>
       <c r="F174" t="n">
-        <v>609169</v>
+        <v>862.2353000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>1.868216666666666</v>
+        <v>1.868366666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C175" t="n">
         <v>1.861</v>
       </c>
-      <c r="C175" t="n">
-        <v>1.852</v>
-      </c>
       <c r="D175" t="n">
-        <v>1.868</v>
+        <v>1.878</v>
       </c>
       <c r="E175" t="n">
-        <v>1.851</v>
+        <v>1.861</v>
       </c>
       <c r="F175" t="n">
-        <v>947085.8385</v>
+        <v>609169</v>
       </c>
       <c r="G175" t="n">
-        <v>1.868083333333333</v>
+        <v>1.868216666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.868</v>
+        <v>1.861</v>
       </c>
       <c r="C176" t="n">
         <v>1.852</v>
@@ -6532,13 +6532,13 @@
         <v>1.868</v>
       </c>
       <c r="E176" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="F176" t="n">
-        <v>680998.88</v>
+        <v>947085.8385</v>
       </c>
       <c r="G176" t="n">
-        <v>1.86765</v>
+        <v>1.868083333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="C177" t="n">
-        <v>1.867</v>
+        <v>1.852</v>
       </c>
       <c r="D177" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="E177" t="n">
-        <v>1.867</v>
+        <v>1.852</v>
       </c>
       <c r="F177" t="n">
-        <v>251955.6523</v>
+        <v>680998.88</v>
       </c>
       <c r="G177" t="n">
-        <v>1.867483333333333</v>
+        <v>1.86765</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.851</v>
+        <v>1.867</v>
       </c>
       <c r="C178" t="n">
-        <v>1.851</v>
+        <v>1.867</v>
       </c>
       <c r="D178" t="n">
-        <v>1.851</v>
+        <v>1.867</v>
       </c>
       <c r="E178" t="n">
-        <v>1.851</v>
+        <v>1.867</v>
       </c>
       <c r="F178" t="n">
-        <v>14532.382</v>
+        <v>251955.6523</v>
       </c>
       <c r="G178" t="n">
-        <v>1.867316666666666</v>
+        <v>1.867483333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>1.851</v>
       </c>
       <c r="F179" t="n">
-        <v>5083.547</v>
+        <v>14532.382</v>
       </c>
       <c r="G179" t="n">
-        <v>1.867149999999999</v>
+        <v>1.867316666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="C180" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="D180" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="E180" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="F180" t="n">
-        <v>818.1387999999999</v>
+        <v>5083.547</v>
       </c>
       <c r="G180" t="n">
-        <v>1.866716666666666</v>
+        <v>1.867149999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +6701,19 @@
         <v>1.852</v>
       </c>
       <c r="C181" t="n">
-        <v>1.851</v>
+        <v>1.852</v>
       </c>
       <c r="D181" t="n">
         <v>1.852</v>
       </c>
       <c r="E181" t="n">
-        <v>1.851</v>
+        <v>1.852</v>
       </c>
       <c r="F181" t="n">
-        <v>616432.0122999999</v>
+        <v>818.1387999999999</v>
       </c>
       <c r="G181" t="n">
-        <v>1.866266666666666</v>
+        <v>1.866716666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="C182" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="D182" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="E182" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="F182" t="n">
-        <v>282819.8222</v>
+        <v>616432.0122999999</v>
       </c>
       <c r="G182" t="n">
-        <v>1.865966666666666</v>
+        <v>1.866266666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.866</v>
+        <v>1.85</v>
       </c>
       <c r="C183" t="n">
-        <v>1.851</v>
+        <v>1.85</v>
       </c>
       <c r="D183" t="n">
-        <v>1.866</v>
+        <v>1.85</v>
       </c>
       <c r="E183" t="n">
-        <v>1.851</v>
+        <v>1.85</v>
       </c>
       <c r="F183" t="n">
-        <v>1427295</v>
+        <v>282819.8222</v>
       </c>
       <c r="G183" t="n">
-        <v>1.865799999999999</v>
+        <v>1.865966666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6806,19 +6806,19 @@
         <v>1.866</v>
       </c>
       <c r="C184" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="D184" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="E184" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="F184" t="n">
-        <v>3016506.3616</v>
+        <v>1427295</v>
       </c>
       <c r="G184" t="n">
-        <v>1.865666666666666</v>
+        <v>1.865799999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.869</v>
+        <v>1.866</v>
       </c>
       <c r="C185" t="n">
         <v>1.853</v>
       </c>
       <c r="D185" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="E185" t="n">
         <v>1.853</v>
       </c>
       <c r="F185" t="n">
-        <v>1467074</v>
+        <v>3016506.3616</v>
       </c>
       <c r="G185" t="n">
-        <v>1.865283333333333</v>
+        <v>1.865666666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="C186" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="D186" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="E186" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="F186" t="n">
-        <v>47312.9062</v>
+        <v>1467074</v>
       </c>
       <c r="G186" t="n">
-        <v>1.864866666666666</v>
+        <v>1.865283333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.869</v>
+        <v>1.852</v>
       </c>
       <c r="C187" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="D187" t="n">
-        <v>1.869</v>
+        <v>1.852</v>
       </c>
       <c r="E187" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="F187" t="n">
-        <v>811529</v>
+        <v>47312.9062</v>
       </c>
       <c r="G187" t="n">
-        <v>1.864483333333332</v>
+        <v>1.864866666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>1.869</v>
       </c>
       <c r="C188" t="n">
-        <v>1.869</v>
+        <v>1.853</v>
       </c>
       <c r="D188" t="n">
         <v>1.869</v>
@@ -6955,10 +6955,10 @@
         <v>1.853</v>
       </c>
       <c r="F188" t="n">
-        <v>3416462.88</v>
+        <v>811529</v>
       </c>
       <c r="G188" t="n">
-        <v>1.864366666666666</v>
+        <v>1.864483333333332</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="C189" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="D189" t="n">
         <v>1.869</v>
@@ -6990,10 +6990,10 @@
         <v>1.853</v>
       </c>
       <c r="F189" t="n">
-        <v>3364437.88</v>
+        <v>3416462.88</v>
       </c>
       <c r="G189" t="n">
-        <v>1.864233333333332</v>
+        <v>1.864366666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.869</v>
+        <v>1.853</v>
       </c>
       <c r="C190" t="n">
         <v>1.853</v>
@@ -7025,10 +7025,10 @@
         <v>1.853</v>
       </c>
       <c r="F190" t="n">
-        <v>631030.88</v>
+        <v>3364437.88</v>
       </c>
       <c r="G190" t="n">
-        <v>1.864099999999999</v>
+        <v>1.864233333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="C191" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="D191" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="E191" t="n">
-        <v>1.852</v>
+        <v>1.853</v>
       </c>
       <c r="F191" t="n">
-        <v>116000</v>
+        <v>631030.88</v>
       </c>
       <c r="G191" t="n">
-        <v>1.863933333333332</v>
+        <v>1.864099999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.868</v>
+        <v>1.852</v>
       </c>
       <c r="C192" t="n">
-        <v>1.868</v>
+        <v>1.852</v>
       </c>
       <c r="D192" t="n">
-        <v>1.868</v>
+        <v>1.852</v>
       </c>
       <c r="E192" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="F192" t="n">
-        <v>2260403.88</v>
+        <v>116000</v>
       </c>
       <c r="G192" t="n">
-        <v>1.864033333333332</v>
+        <v>1.863933333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>1.853</v>
       </c>
       <c r="F193" t="n">
-        <v>3027419.88</v>
+        <v>2260403.88</v>
       </c>
       <c r="G193" t="n">
-        <v>1.863916666666665</v>
+        <v>1.864033333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.853</v>
+        <v>1.868</v>
       </c>
       <c r="C194" t="n">
-        <v>1.853</v>
+        <v>1.868</v>
       </c>
       <c r="D194" t="n">
         <v>1.868</v>
@@ -7165,10 +7165,10 @@
         <v>1.853</v>
       </c>
       <c r="F194" t="n">
-        <v>2638074.88</v>
+        <v>3027419.88</v>
       </c>
       <c r="G194" t="n">
-        <v>1.863549999999999</v>
+        <v>1.863916666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.869</v>
+        <v>1.853</v>
       </c>
       <c r="C195" t="n">
-        <v>1.869</v>
+        <v>1.853</v>
       </c>
       <c r="D195" t="n">
-        <v>1.869</v>
+        <v>1.868</v>
       </c>
       <c r="E195" t="n">
-        <v>1.869</v>
+        <v>1.853</v>
       </c>
       <c r="F195" t="n">
-        <v>53885.5803</v>
+        <v>2638074.88</v>
       </c>
       <c r="G195" t="n">
-        <v>1.863449999999999</v>
+        <v>1.863549999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="C196" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="D196" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="E196" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="F196" t="n">
-        <v>6013.7799</v>
+        <v>53885.5803</v>
       </c>
       <c r="G196" t="n">
-        <v>1.863099999999999</v>
+        <v>1.863449999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.868</v>
+        <v>1.853</v>
       </c>
       <c r="C197" t="n">
-        <v>1.854</v>
+        <v>1.853</v>
       </c>
       <c r="D197" t="n">
-        <v>1.868</v>
+        <v>1.853</v>
       </c>
       <c r="E197" t="n">
-        <v>1.854</v>
+        <v>1.853</v>
       </c>
       <c r="F197" t="n">
-        <v>730821</v>
+        <v>6013.7799</v>
       </c>
       <c r="G197" t="n">
-        <v>1.862949999999999</v>
+        <v>1.863099999999999</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7296,19 +7296,19 @@
         <v>1.868</v>
       </c>
       <c r="C198" t="n">
-        <v>1.853</v>
+        <v>1.854</v>
       </c>
       <c r="D198" t="n">
         <v>1.868</v>
       </c>
       <c r="E198" t="n">
-        <v>1.853</v>
+        <v>1.854</v>
       </c>
       <c r="F198" t="n">
-        <v>2408085</v>
+        <v>730821</v>
       </c>
       <c r="G198" t="n">
-        <v>1.862783333333332</v>
+        <v>1.862949999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7331,19 +7331,19 @@
         <v>1.868</v>
       </c>
       <c r="C199" t="n">
-        <v>1.868</v>
+        <v>1.853</v>
       </c>
       <c r="D199" t="n">
         <v>1.868</v>
       </c>
       <c r="E199" t="n">
-        <v>1.851</v>
+        <v>1.853</v>
       </c>
       <c r="F199" t="n">
-        <v>2997222.76</v>
+        <v>2408085</v>
       </c>
       <c r="G199" t="n">
-        <v>1.862866666666665</v>
+        <v>1.862783333333332</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7366,19 +7366,19 @@
         <v>1.868</v>
       </c>
       <c r="C200" t="n">
-        <v>1.852</v>
+        <v>1.868</v>
       </c>
       <c r="D200" t="n">
         <v>1.868</v>
       </c>
       <c r="E200" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="F200" t="n">
-        <v>1420703</v>
+        <v>2997222.76</v>
       </c>
       <c r="G200" t="n">
-        <v>1.862699999999999</v>
+        <v>1.862866666666665</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>1.868</v>
       </c>
       <c r="C201" t="n">
-        <v>1.855</v>
+        <v>1.852</v>
       </c>
       <c r="D201" t="n">
         <v>1.868</v>
@@ -7410,10 +7410,10 @@
         <v>1.852</v>
       </c>
       <c r="F201" t="n">
-        <v>2843169.88</v>
+        <v>1420703</v>
       </c>
       <c r="G201" t="n">
-        <v>1.862583333333332</v>
+        <v>1.862699999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.854</v>
+        <v>1.868</v>
       </c>
       <c r="C202" t="n">
-        <v>1.854</v>
+        <v>1.855</v>
       </c>
       <c r="D202" t="n">
-        <v>1.854</v>
+        <v>1.868</v>
       </c>
       <c r="E202" t="n">
-        <v>1.854</v>
+        <v>1.852</v>
       </c>
       <c r="F202" t="n">
-        <v>958927.7136</v>
+        <v>2843169.88</v>
       </c>
       <c r="G202" t="n">
-        <v>1.862449999999999</v>
+        <v>1.862583333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.851</v>
+        <v>1.854</v>
       </c>
       <c r="C203" t="n">
-        <v>1.848</v>
+        <v>1.854</v>
       </c>
       <c r="D203" t="n">
-        <v>1.851</v>
+        <v>1.854</v>
       </c>
       <c r="E203" t="n">
-        <v>1.848</v>
+        <v>1.854</v>
       </c>
       <c r="F203" t="n">
-        <v>17431.759</v>
+        <v>958927.7136</v>
       </c>
       <c r="G203" t="n">
-        <v>1.862416666666665</v>
+        <v>1.862449999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.846</v>
+        <v>1.851</v>
       </c>
       <c r="C204" t="n">
-        <v>1.854</v>
+        <v>1.848</v>
       </c>
       <c r="D204" t="n">
-        <v>1.854</v>
+        <v>1.851</v>
       </c>
       <c r="E204" t="n">
-        <v>1.845</v>
+        <v>1.848</v>
       </c>
       <c r="F204" t="n">
-        <v>77889.9979</v>
+        <v>17431.759</v>
       </c>
       <c r="G204" t="n">
-        <v>1.862299999999999</v>
+        <v>1.862416666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7541,19 +7541,19 @@
         <v>1.846</v>
       </c>
       <c r="C205" t="n">
-        <v>1.846</v>
+        <v>1.854</v>
       </c>
       <c r="D205" t="n">
-        <v>1.846</v>
+        <v>1.854</v>
       </c>
       <c r="E205" t="n">
-        <v>1.846</v>
+        <v>1.845</v>
       </c>
       <c r="F205" t="n">
-        <v>189784.8948</v>
+        <v>77889.9979</v>
       </c>
       <c r="G205" t="n">
-        <v>1.862049999999999</v>
+        <v>1.862299999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.845</v>
+        <v>1.846</v>
       </c>
       <c r="C206" t="n">
-        <v>1.844</v>
+        <v>1.846</v>
       </c>
       <c r="D206" t="n">
-        <v>1.845</v>
+        <v>1.846</v>
       </c>
       <c r="E206" t="n">
-        <v>1.844</v>
+        <v>1.846</v>
       </c>
       <c r="F206" t="n">
-        <v>558548.5991</v>
+        <v>189784.8948</v>
       </c>
       <c r="G206" t="n">
-        <v>1.861783333333332</v>
+        <v>1.862049999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.843</v>
+        <v>1.845</v>
       </c>
       <c r="C207" t="n">
-        <v>1.843</v>
+        <v>1.844</v>
       </c>
       <c r="D207" t="n">
-        <v>1.843</v>
+        <v>1.845</v>
       </c>
       <c r="E207" t="n">
-        <v>1.843</v>
+        <v>1.844</v>
       </c>
       <c r="F207" t="n">
-        <v>44968.1723</v>
+        <v>558548.5991</v>
       </c>
       <c r="G207" t="n">
-        <v>1.861483333333332</v>
+        <v>1.861783333333332</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.844</v>
+        <v>1.843</v>
       </c>
       <c r="C208" t="n">
-        <v>1.84</v>
+        <v>1.843</v>
       </c>
       <c r="D208" t="n">
-        <v>1.845</v>
+        <v>1.843</v>
       </c>
       <c r="E208" t="n">
-        <v>1.84</v>
+        <v>1.843</v>
       </c>
       <c r="F208" t="n">
-        <v>1716589.0569</v>
+        <v>44968.1723</v>
       </c>
       <c r="G208" t="n">
-        <v>1.861149999999999</v>
+        <v>1.861483333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="C209" t="n">
         <v>1.84</v>
       </c>
-      <c r="C209" t="n">
-        <v>1.839</v>
-      </c>
       <c r="D209" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="E209" t="n">
         <v>1.84</v>
       </c>
-      <c r="E209" t="n">
-        <v>1.839</v>
-      </c>
       <c r="F209" t="n">
-        <v>298025.4364</v>
+        <v>1716589.0569</v>
       </c>
       <c r="G209" t="n">
-        <v>1.860783333333332</v>
+        <v>1.861149999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="C210" t="n">
         <v>1.839</v>
       </c>
       <c r="D210" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="E210" t="n">
         <v>1.839</v>
       </c>
       <c r="F210" t="n">
-        <v>29307.922</v>
+        <v>298025.4364</v>
       </c>
       <c r="G210" t="n">
-        <v>1.860399999999999</v>
+        <v>1.860783333333332</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,31 +7748,35 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="C211" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="D211" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E211" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="F211" t="n">
-        <v>12338.4704</v>
+        <v>29307.922</v>
       </c>
       <c r="G211" t="n">
-        <v>1.860033333333332</v>
+        <v>1.860399999999999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1.839</v>
+      </c>
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
@@ -7783,22 +7787,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.854</v>
+        <v>1.84</v>
       </c>
       <c r="C212" t="n">
-        <v>1.854</v>
+        <v>1.84</v>
       </c>
       <c r="D212" t="n">
-        <v>1.854</v>
+        <v>1.84</v>
       </c>
       <c r="E212" t="n">
-        <v>1.854</v>
+        <v>1.84</v>
       </c>
       <c r="F212" t="n">
-        <v>161408.7757</v>
+        <v>12338.4704</v>
       </c>
       <c r="G212" t="n">
-        <v>1.859899999999999</v>
+        <v>1.860033333333332</v>
       </c>
       <c r="H212" t="n">
         <v>1</v>
@@ -7807,12 +7811,16 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="K212" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L212" t="inlineStr"/>
+        <v>1.839</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7822,22 +7830,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.869</v>
+        <v>1.854</v>
       </c>
       <c r="C213" t="n">
-        <v>1.851</v>
+        <v>1.854</v>
       </c>
       <c r="D213" t="n">
-        <v>1.869</v>
+        <v>1.854</v>
       </c>
       <c r="E213" t="n">
-        <v>1.851</v>
+        <v>1.854</v>
       </c>
       <c r="F213" t="n">
-        <v>2798698.88</v>
+        <v>161408.7757</v>
       </c>
       <c r="G213" t="n">
-        <v>1.859716666666666</v>
+        <v>1.859899999999999</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
@@ -7846,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.854</v>
+        <v>1.84</v>
       </c>
       <c r="K213" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -7877,24 +7885,26 @@
         <v>1.851</v>
       </c>
       <c r="F214" t="n">
-        <v>1436087.88</v>
+        <v>2798698.88</v>
       </c>
       <c r="G214" t="n">
-        <v>1.859316666666666</v>
+        <v>1.859716666666666</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1.854</v>
+      </c>
       <c r="K214" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -7918,10 +7928,10 @@
         <v>1.851</v>
       </c>
       <c r="F215" t="n">
-        <v>1503458</v>
+        <v>1436087.88</v>
       </c>
       <c r="G215" t="n">
-        <v>1.858916666666666</v>
+        <v>1.859316666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7930,8 +7940,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7944,7 +7960,7 @@
         <v>1.869</v>
       </c>
       <c r="C216" t="n">
-        <v>1.869</v>
+        <v>1.851</v>
       </c>
       <c r="D216" t="n">
         <v>1.869</v>
@@ -7953,10 +7969,10 @@
         <v>1.851</v>
       </c>
       <c r="F216" t="n">
-        <v>2974045.88</v>
+        <v>1503458</v>
       </c>
       <c r="G216" t="n">
-        <v>1.858816666666666</v>
+        <v>1.858916666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7965,8 +7981,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7988,10 +8010,10 @@
         <v>1.851</v>
       </c>
       <c r="F217" t="n">
-        <v>2777523.76</v>
+        <v>2974045.88</v>
       </c>
       <c r="G217" t="n">
-        <v>1.858716666666666</v>
+        <v>1.858816666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8000,8 +8022,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8014,7 +8042,7 @@
         <v>1.869</v>
       </c>
       <c r="C218" t="n">
-        <v>1.851</v>
+        <v>1.869</v>
       </c>
       <c r="D218" t="n">
         <v>1.869</v>
@@ -8023,10 +8051,10 @@
         <v>1.851</v>
       </c>
       <c r="F218" t="n">
-        <v>792403</v>
+        <v>2777523.76</v>
       </c>
       <c r="G218" t="n">
-        <v>1.858316666666666</v>
+        <v>1.858716666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8035,8 +8063,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8049,19 +8083,19 @@
         <v>1.869</v>
       </c>
       <c r="C219" t="n">
-        <v>1.88</v>
+        <v>1.851</v>
       </c>
       <c r="D219" t="n">
-        <v>1.88</v>
+        <v>1.869</v>
       </c>
       <c r="E219" t="n">
-        <v>1.869</v>
+        <v>1.851</v>
       </c>
       <c r="F219" t="n">
-        <v>1684699.643394787</v>
+        <v>792403</v>
       </c>
       <c r="G219" t="n">
-        <v>1.858549999999999</v>
+        <v>1.858316666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8070,8 +8104,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8081,22 +8121,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.879</v>
+        <v>1.869</v>
       </c>
       <c r="C220" t="n">
-        <v>1.854</v>
+        <v>1.88</v>
       </c>
       <c r="D220" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="E220" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="F220" t="n">
-        <v>1365300.1088</v>
+        <v>1684699.643394787</v>
       </c>
       <c r="G220" t="n">
-        <v>1.858199999999999</v>
+        <v>1.858549999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8105,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8116,22 +8162,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.851</v>
+        <v>1.879</v>
       </c>
       <c r="C221" t="n">
-        <v>1.851</v>
+        <v>1.854</v>
       </c>
       <c r="D221" t="n">
         <v>1.879</v>
       </c>
       <c r="E221" t="n">
-        <v>1.851</v>
+        <v>1.852</v>
       </c>
       <c r="F221" t="n">
-        <v>1905879.4225</v>
+        <v>1365300.1088</v>
       </c>
       <c r="G221" t="n">
-        <v>1.857833333333332</v>
+        <v>1.858199999999999</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8140,8 +8186,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8151,22 +8203,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.878</v>
+        <v>1.851</v>
       </c>
       <c r="C222" t="n">
-        <v>1.878</v>
+        <v>1.851</v>
       </c>
       <c r="D222" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="E222" t="n">
         <v>1.851</v>
       </c>
       <c r="F222" t="n">
-        <v>3154781.88</v>
+        <v>1905879.4225</v>
       </c>
       <c r="G222" t="n">
-        <v>1.857966666666665</v>
+        <v>1.857833333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8175,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8186,10 +8244,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.852</v>
+        <v>1.878</v>
       </c>
       <c r="C223" t="n">
-        <v>1.851</v>
+        <v>1.878</v>
       </c>
       <c r="D223" t="n">
         <v>1.878</v>
@@ -8198,10 +8256,10 @@
         <v>1.851</v>
       </c>
       <c r="F223" t="n">
-        <v>1388416.88</v>
+        <v>3154781.88</v>
       </c>
       <c r="G223" t="n">
-        <v>1.857566666666665</v>
+        <v>1.857966666666665</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8210,8 +8268,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8221,22 +8285,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="C224" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="D224" t="n">
-        <v>1.85</v>
+        <v>1.878</v>
       </c>
       <c r="E224" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="F224" t="n">
-        <v>1000</v>
+        <v>1388416.88</v>
       </c>
       <c r="G224" t="n">
-        <v>1.857266666666665</v>
+        <v>1.857566666666665</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8245,8 +8309,14 @@
         <v>1</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8256,22 +8326,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.878</v>
+        <v>1.85</v>
       </c>
       <c r="C225" t="n">
-        <v>1.878</v>
+        <v>1.85</v>
       </c>
       <c r="D225" t="n">
-        <v>1.878</v>
+        <v>1.85</v>
       </c>
       <c r="E225" t="n">
-        <v>1.878</v>
+        <v>1.85</v>
       </c>
       <c r="F225" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="G225" t="n">
-        <v>1.857716666666665</v>
+        <v>1.857266666666665</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8280,8 +8350,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8294,31 +8370,37 @@
         <v>1.878</v>
       </c>
       <c r="C226" t="n">
-        <v>1.851</v>
+        <v>1.878</v>
       </c>
       <c r="D226" t="n">
         <v>1.878</v>
       </c>
       <c r="E226" t="n">
-        <v>1.851</v>
+        <v>1.878</v>
       </c>
       <c r="F226" t="n">
-        <v>713715</v>
+        <v>270</v>
       </c>
       <c r="G226" t="n">
-        <v>1.857316666666665</v>
+        <v>1.857716666666665</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M226" t="n">
-        <v>1</v>
+        <v>1.016207177814029</v>
       </c>
     </row>
     <row r="227">
@@ -8338,10 +8420,10 @@
         <v>1.851</v>
       </c>
       <c r="F227" t="n">
-        <v>3917211.190969116</v>
+        <v>713715</v>
       </c>
       <c r="G227" t="n">
-        <v>1.856916666666665</v>
+        <v>1.857316666666665</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8373,16 +8455,16 @@
         <v>1.851</v>
       </c>
       <c r="F228" t="n">
-        <v>2769083.88</v>
+        <v>3917211.190969116</v>
       </c>
       <c r="G228" t="n">
-        <v>1.856499999999998</v>
+        <v>1.856916666666665</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -8399,19 +8481,19 @@
         <v>1.878</v>
       </c>
       <c r="C229" t="n">
-        <v>1.841</v>
+        <v>1.851</v>
       </c>
       <c r="D229" t="n">
         <v>1.878</v>
       </c>
       <c r="E229" t="n">
-        <v>1.841</v>
+        <v>1.851</v>
       </c>
       <c r="F229" t="n">
-        <v>1123156.0761</v>
+        <v>2769083.88</v>
       </c>
       <c r="G229" t="n">
-        <v>1.855933333333332</v>
+        <v>1.856499999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8431,22 +8513,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="C230" t="n">
-        <v>1.869</v>
+        <v>1.841</v>
       </c>
       <c r="D230" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="E230" t="n">
-        <v>1.868</v>
+        <v>1.841</v>
       </c>
       <c r="F230" t="n">
-        <v>540</v>
+        <v>1123156.0761</v>
       </c>
       <c r="G230" t="n">
-        <v>1.855816666666665</v>
+        <v>1.855933333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8466,22 +8548,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="C231" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="D231" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="E231" t="n">
-        <v>1.852</v>
+        <v>1.868</v>
       </c>
       <c r="F231" t="n">
-        <v>282.4687</v>
+        <v>540</v>
       </c>
       <c r="G231" t="n">
-        <v>1.855416666666665</v>
+        <v>1.855816666666665</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8496,6 +8578,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F232" t="n">
+        <v>282.4687</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1.855416666666665</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest AOA.xlsx
+++ b/BackTest/2020-01-15 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:N242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>14195.4397</v>
       </c>
       <c r="G2" t="n">
+        <v>1.891000000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.895866666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10576.4146</v>
       </c>
       <c r="G3" t="n">
+        <v>1.890866666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.895566666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>412541.2515</v>
       </c>
       <c r="G4" t="n">
+        <v>1.889733333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.895466666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1085068.5</v>
       </c>
       <c r="G5" t="n">
+        <v>1.888600000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.895066666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2963043.88</v>
       </c>
       <c r="G6" t="n">
+        <v>1.889066666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.895216666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>3396306.88</v>
       </c>
       <c r="G7" t="n">
+        <v>1.888400000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.89505</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1555450.88</v>
       </c>
       <c r="G8" t="n">
+        <v>1.887733333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.8949</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>260000</v>
       </c>
       <c r="G9" t="n">
+        <v>1.887066666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.89475</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2355231.88</v>
       </c>
       <c r="G10" t="n">
+        <v>1.887600000000002</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.894733333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>3053340.88</v>
       </c>
       <c r="G11" t="n">
+        <v>1.887066666666669</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.89465</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1196033</v>
       </c>
       <c r="G12" t="n">
+        <v>1.886533333333335</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.89435</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>9002738.4376</v>
       </c>
       <c r="G13" t="n">
+        <v>1.884133333333335</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.893366666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>500</v>
       </c>
       <c r="G14" t="n">
+        <v>1.883466666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.892916666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>75500</v>
       </c>
       <c r="G15" t="n">
+        <v>1.882333333333335</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.8923</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>80000</v>
       </c>
       <c r="G16" t="n">
+        <v>1.881800000000002</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.891783333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3880084.88</v>
       </c>
       <c r="G17" t="n">
+        <v>1.881466666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.891666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3273964.88</v>
       </c>
       <c r="G18" t="n">
+        <v>1.881933333333335</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.891516666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1068133.04</v>
       </c>
       <c r="G19" t="n">
+        <v>1.881666666666668</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.8914</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1666254.88</v>
       </c>
       <c r="G20" t="n">
+        <v>1.882466666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.891533333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1258603</v>
       </c>
       <c r="G21" t="n">
+        <v>1.881266666666668</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.8911</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>213841.4025</v>
       </c>
       <c r="G22" t="n">
+        <v>1.881400000000002</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.891</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>238157.8351</v>
       </c>
       <c r="G23" t="n">
+        <v>1.881600000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.890616666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>8801.4337</v>
       </c>
       <c r="G24" t="n">
+        <v>1.881800000000002</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.89055</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>42000</v>
       </c>
       <c r="G25" t="n">
+        <v>1.880800000000002</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.890483333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>30000</v>
       </c>
       <c r="G26" t="n">
+        <v>1.880933333333335</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.890116666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>10000</v>
       </c>
       <c r="G27" t="n">
+        <v>1.881066666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.89005</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>50000</v>
       </c>
       <c r="G28" t="n">
+        <v>1.883266666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.889983333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>130000</v>
       </c>
       <c r="G29" t="n">
+        <v>1.883733333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.889916666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>11885.8404</v>
       </c>
       <c r="G30" t="n">
+        <v>1.885600000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.88975</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>531.2581</v>
       </c>
       <c r="G31" t="n">
+        <v>1.886933333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.889866666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>9203.5028</v>
       </c>
       <c r="G32" t="n">
+        <v>1.888000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.889983333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>796.4972</v>
       </c>
       <c r="G33" t="n">
+        <v>1.887933333333335</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.889816666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>5000</v>
       </c>
       <c r="G34" t="n">
+        <v>1.889000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.889933333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>7100</v>
       </c>
       <c r="G35" t="n">
+        <v>1.888200000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.889816666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1000</v>
       </c>
       <c r="G36" t="n">
+        <v>1.889200000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.889666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>5608.3701</v>
       </c>
       <c r="G37" t="n">
+        <v>1.889466666666668</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.889416666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1000</v>
       </c>
       <c r="G38" t="n">
+        <v>1.890333333333335</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.889350000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4199.0813</v>
       </c>
       <c r="G39" t="n">
+        <v>1.891200000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.889283333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>7000</v>
       </c>
       <c r="G40" t="n">
+        <v>1.892066666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.889216666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>26342.8598</v>
       </c>
       <c r="G41" t="n">
+        <v>1.891933333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.888900000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2447.5256</v>
       </c>
       <c r="G42" t="n">
+        <v>1.891800000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.888683333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>10000</v>
       </c>
       <c r="G43" t="n">
+        <v>1.892600000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.888583333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1758.5466</v>
       </c>
       <c r="G44" t="n">
+        <v>1.893400000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.888600000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>4738.2619</v>
       </c>
       <c r="G45" t="n">
+        <v>1.893400000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.888516666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>443.999</v>
       </c>
       <c r="G46" t="n">
+        <v>1.893333333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.888533333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2522.6842</v>
       </c>
       <c r="G47" t="n">
+        <v>1.893200000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.888416666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>400000</v>
       </c>
       <c r="G48" t="n">
+        <v>1.893133333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.888466666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>3308.0012</v>
       </c>
       <c r="G49" t="n">
+        <v>1.892200000000002</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.888150000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>161909.8842</v>
       </c>
       <c r="G50" t="n">
+        <v>1.892066666666668</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.887833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1593.0751</v>
       </c>
       <c r="G51" t="n">
+        <v>1.891133333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.887666666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>115234.3304</v>
       </c>
       <c r="G52" t="n">
+        <v>1.890866666666668</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.887533333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>63569.7002</v>
       </c>
       <c r="G53" t="n">
+        <v>1.889933333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.887400000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2782461.3681</v>
       </c>
       <c r="G54" t="n">
+        <v>1.888933333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.887250000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>3383093.88</v>
       </c>
       <c r="G55" t="n">
+        <v>1.886533333333335</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.886750000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>83150.4593</v>
       </c>
       <c r="G56" t="n">
+        <v>1.885200000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.886283333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>795128.4219</v>
       </c>
       <c r="G57" t="n">
+        <v>1.885200000000002</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.886150000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>795935</v>
       </c>
       <c r="G58" t="n">
+        <v>1.883266666666668</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.885816666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>909.2584000000001</v>
       </c>
       <c r="G59" t="n">
+        <v>1.882333333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.885733333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>686571.3567</v>
       </c>
       <c r="G60" t="n">
+        <v>1.880333333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.885416666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>10353.5084</v>
       </c>
       <c r="G61" t="n">
+        <v>1.878400000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.885116666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>362245.8408</v>
       </c>
       <c r="G62" t="n">
+        <v>1.877466666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.885033333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>350.5046</v>
       </c>
       <c r="G63" t="n">
+        <v>1.876600000000002</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.884900000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>81350.6908</v>
       </c>
       <c r="G64" t="n">
+        <v>1.876466666666669</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.884833333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>4253.2774</v>
       </c>
       <c r="G65" t="n">
+        <v>1.876400000000002</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.884783333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>446979.7065</v>
       </c>
       <c r="G66" t="n">
+        <v>1.876266666666669</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.884466666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>5000</v>
       </c>
       <c r="G67" t="n">
+        <v>1.876133333333335</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.884466666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>20628.1776</v>
       </c>
       <c r="G68" t="n">
+        <v>1.876066666666669</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.884483333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1169.2289</v>
       </c>
       <c r="G69" t="n">
+        <v>1.876133333333335</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.884516666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>200000</v>
       </c>
       <c r="G70" t="n">
+        <v>1.877600000000002</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.884250000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>397535.7177</v>
       </c>
       <c r="G71" t="n">
+        <v>1.878866666666668</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.884233333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>33435.9502</v>
       </c>
       <c r="G72" t="n">
+        <v>1.878800000000002</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.884216666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>3318.5367</v>
       </c>
       <c r="G73" t="n">
+        <v>1.879733333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.884716666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>269.3262</v>
       </c>
       <c r="G74" t="n">
+        <v>1.878800000000002</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.884566666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>7707.7004</v>
       </c>
       <c r="G75" t="n">
+        <v>1.879733333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.884766666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>292.2996</v>
       </c>
       <c r="G76" t="n">
+        <v>1.880666666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.884833333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>2000</v>
       </c>
       <c r="G77" t="n">
+        <v>1.880666666666668</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.884833333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>7707.7004</v>
       </c>
       <c r="G78" t="n">
+        <v>1.879666666666668</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.884333333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1000</v>
       </c>
       <c r="G79" t="n">
+        <v>1.879666666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.884333333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>914.3815</v>
       </c>
       <c r="G80" t="n">
+        <v>1.879533333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.88405</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>113412.8328</v>
       </c>
       <c r="G81" t="n">
+        <v>1.879466666666668</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.884016666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>1587.1672</v>
       </c>
       <c r="G82" t="n">
+        <v>1.879400000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.883966666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1311.45</v>
       </c>
       <c r="G83" t="n">
+        <v>1.879266666666668</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.8839</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>8688.549999999999</v>
       </c>
       <c r="G84" t="n">
+        <v>1.879066666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.883833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1000</v>
       </c>
       <c r="G85" t="n">
+        <v>1.878866666666668</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.883766666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
+        <v>1.878800000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.8837</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>9000</v>
       </c>
       <c r="G87" t="n">
+        <v>1.878733333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.883633333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1014.9785</v>
       </c>
       <c r="G88" t="n">
+        <v>1.878666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.883566666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>1985.0215</v>
       </c>
       <c r="G89" t="n">
+        <v>1.879466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.8835</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>32000</v>
       </c>
       <c r="G90" t="n">
+        <v>1.879400000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.883216666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>9000</v>
       </c>
       <c r="G91" t="n">
+        <v>1.879400000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.882949999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>950405</v>
       </c>
       <c r="G92" t="n">
+        <v>1.878533333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.882466666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>140998.5014</v>
       </c>
       <c r="G93" t="n">
+        <v>1.879400000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.882199999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>2484.8485</v>
       </c>
       <c r="G94" t="n">
+        <v>1.879400000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.881933333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1776.1982</v>
       </c>
       <c r="G95" t="n">
+        <v>1.879466666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.881866666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>1223.8018</v>
       </c>
       <c r="G96" t="n">
+        <v>1.879533333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.881599999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>87600.33</v>
       </c>
       <c r="G97" t="n">
+        <v>1.878666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.881266666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>935.7861</v>
       </c>
       <c r="G98" t="n">
+        <v>1.878666666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.880983333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1549184.76</v>
       </c>
       <c r="G99" t="n">
+        <v>1.877400000000001</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.880383333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>2783481.76</v>
       </c>
       <c r="G100" t="n">
+        <v>1.877333333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.880083333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>2815464.88</v>
       </c>
       <c r="G101" t="n">
+        <v>1.876133333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.879749999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>715154</v>
       </c>
       <c r="G102" t="n">
+        <v>1.874933333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.879416666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>3401895.88</v>
       </c>
       <c r="G103" t="n">
+        <v>1.874866666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.879133333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>1062982</v>
       </c>
       <c r="G104" t="n">
+        <v>1.873800000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.878599999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>572.1922</v>
       </c>
       <c r="G105" t="n">
+        <v>1.873800000000002</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.878316666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1934.4157</v>
       </c>
       <c r="G106" t="n">
+        <v>1.873600000000002</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.878016666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>105131.9654</v>
       </c>
       <c r="G107" t="n">
+        <v>1.874266666666668</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.877733333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>196435.3675</v>
       </c>
       <c r="G108" t="n">
+        <v>1.874066666666668</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.877433333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>5057.2174</v>
       </c>
       <c r="G109" t="n">
+        <v>1.873733333333335</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.877316666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>1509.5784</v>
       </c>
       <c r="G110" t="n">
+        <v>1.873266666666668</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.877166666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>2962.2587</v>
       </c>
       <c r="G111" t="n">
+        <v>1.873066666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.877083333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>1001.5442</v>
       </c>
       <c r="G112" t="n">
+        <v>1.873200000000002</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.876849999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>2099302.3307</v>
       </c>
       <c r="G113" t="n">
+        <v>1.871933333333335</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.876483333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>38593.0532</v>
       </c>
       <c r="G114" t="n">
+        <v>1.871866666666668</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.876116666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>38593.0532</v>
       </c>
       <c r="G115" t="n">
+        <v>1.871266666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.876266666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>138319.0894</v>
       </c>
       <c r="G116" t="n">
+        <v>1.871133333333335</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.876233333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>24878.0251</v>
       </c>
       <c r="G117" t="n">
+        <v>1.872200000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.876166666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>972817.88</v>
       </c>
       <c r="G118" t="n">
+        <v>1.872066666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.876333333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>3322743.88</v>
       </c>
       <c r="G119" t="n">
+        <v>1.871866666666668</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.875983333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>2951455.88</v>
       </c>
       <c r="G120" t="n">
+        <v>1.870600000000001</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.875883333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>35350.6829</v>
       </c>
       <c r="G121" t="n">
+        <v>1.870600000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.876066666666665</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>851593.9039</v>
       </c>
       <c r="G122" t="n">
+        <v>1.870600000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.876016666666665</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>99067.4301</v>
       </c>
       <c r="G123" t="n">
+        <v>1.869933333333335</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.875766666666665</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>1005.5463</v>
       </c>
       <c r="G124" t="n">
+        <v>1.868933333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.875433333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>1017952.1288</v>
       </c>
       <c r="G125" t="n">
+        <v>1.868066666666668</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.875083333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>2160844.76</v>
       </c>
       <c r="G126" t="n">
+        <v>1.867933333333335</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.874999999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>2368.8886</v>
       </c>
       <c r="G127" t="n">
+        <v>1.868466666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.874933333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>2568.2329</v>
       </c>
       <c r="G128" t="n">
+        <v>1.869466666666668</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.874833333333332</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>14816.7587</v>
       </c>
       <c r="G129" t="n">
+        <v>1.870533333333335</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.874716666666665</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>100485</v>
       </c>
       <c r="G130" t="n">
+        <v>1.869933333333335</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.874349999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>1206779.7619</v>
       </c>
       <c r="G131" t="n">
+        <v>1.870000000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.874016666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>151000</v>
       </c>
       <c r="G132" t="n">
+        <v>1.868933333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.873699999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>100000</v>
       </c>
       <c r="G133" t="n">
+        <v>1.867933333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.873383333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>30000</v>
       </c>
       <c r="G134" t="n">
+        <v>1.868866666666668</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.873499999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>30000</v>
       </c>
       <c r="G135" t="n">
+        <v>1.869800000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.873399999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>1274.9566</v>
       </c>
       <c r="G136" t="n">
+        <v>1.869600000000001</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.873299999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>79843.03909999999</v>
       </c>
       <c r="G137" t="n">
+        <v>1.869333333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.873183333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>79843.03909999999</v>
       </c>
       <c r="G138" t="n">
+        <v>1.869000000000001</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.873099999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>1939497.523</v>
       </c>
       <c r="G139" t="n">
+        <v>1.869133333333335</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.872799999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>334147.9042</v>
       </c>
       <c r="G140" t="n">
+        <v>1.869266666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.872516666666665</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>122376.5715</v>
       </c>
       <c r="G141" t="n">
+        <v>1.868333333333335</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.872216666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>54071.5292</v>
       </c>
       <c r="G142" t="n">
+        <v>1.867333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.871916666666665</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>214822.9444</v>
       </c>
       <c r="G143" t="n">
+        <v>1.866400000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.871616666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>401033.0658</v>
       </c>
       <c r="G144" t="n">
+        <v>1.864666666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.871116666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>771.7353000000001</v>
       </c>
       <c r="G145" t="n">
+        <v>1.864666666666668</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.870799999999999</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>770730.7517</v>
       </c>
       <c r="G146" t="n">
+        <v>1.864666666666668</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.870483333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>692337.4493</v>
       </c>
       <c r="G147" t="n">
+        <v>1.864533333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.870149999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>79945.96030000001</v>
       </c>
       <c r="G148" t="n">
+        <v>1.864466666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.869833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>1301.7353</v>
       </c>
       <c r="G149" t="n">
+        <v>1.863466666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.869499999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>1080</v>
       </c>
       <c r="G150" t="n">
+        <v>1.862533333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.869183333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>412603.996</v>
       </c>
       <c r="G151" t="n">
+        <v>1.861666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.868866666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>107976.5982</v>
       </c>
       <c r="G152" t="n">
+        <v>1.860866666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.868766666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>21947.0838</v>
       </c>
       <c r="G153" t="n">
+        <v>1.860800000000001</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.868449999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>1349398.1499</v>
       </c>
       <c r="G154" t="n">
+        <v>1.860733333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.868133333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>2944</v>
       </c>
       <c r="G155" t="n">
+        <v>1.861533333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.868033333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>801</v>
       </c>
       <c r="G156" t="n">
+        <v>1.862400000000001</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.867933333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>311</v>
       </c>
       <c r="G157" t="n">
+        <v>1.863266666666668</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.868066666666666</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>905</v>
       </c>
       <c r="G158" t="n">
+        <v>1.864133333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.867983333333332</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>419664.5333333333</v>
       </c>
       <c r="G159" t="n">
+        <v>1.865800000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.868216666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>1787.1177</v>
       </c>
       <c r="G160" t="n">
+        <v>1.866133333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.867999999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>27044</v>
       </c>
       <c r="G161" t="n">
+        <v>1.867066666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.868216666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>299</v>
       </c>
       <c r="G162" t="n">
+        <v>1.867933333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.868399999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>444</v>
       </c>
       <c r="G163" t="n">
+        <v>1.868533333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.868249999999999</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>39609.88</v>
       </c>
       <c r="G164" t="n">
+        <v>1.869533333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.868433333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>2434.7196</v>
       </c>
       <c r="G165" t="n">
+        <v>1.870000000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.868233333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>3445535.8202</v>
       </c>
       <c r="G166" t="n">
+        <v>1.869266666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.867783333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>2865126.76</v>
       </c>
       <c r="G167" t="n">
+        <v>1.870133333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.867733333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>2293846.88</v>
       </c>
       <c r="G168" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.867683333333332</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>1059.1882</v>
       </c>
       <c r="G169" t="n">
+        <v>1.871933333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.867683333333332</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>79259.8312</v>
       </c>
       <c r="G170" t="n">
+        <v>1.871933333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.867699999999999</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>1478.5956</v>
       </c>
       <c r="G171" t="n">
+        <v>1.872000000000001</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.867666666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>4610.9778</v>
       </c>
       <c r="G172" t="n">
+        <v>1.872066666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.867783333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>910.4266</v>
       </c>
       <c r="G173" t="n">
+        <v>1.872133333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.868033333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>862.2353000000001</v>
       </c>
       <c r="G174" t="n">
+        <v>1.872466666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.868366666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>609169</v>
       </c>
       <c r="G175" t="n">
+        <v>1.872133333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.868216666666666</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>947085.8385</v>
       </c>
       <c r="G176" t="n">
+        <v>1.870600000000001</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.868083333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>680998.88</v>
       </c>
       <c r="G177" t="n">
+        <v>1.869200000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.86765</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>251955.6523</v>
       </c>
       <c r="G178" t="n">
+        <v>1.869000000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.867483333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>14532.382</v>
       </c>
       <c r="G179" t="n">
+        <v>1.867400000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.867316666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,25 @@
         <v>5083.547</v>
       </c>
       <c r="G180" t="n">
+        <v>1.866266666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.867149999999999</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7259,29 @@
         <v>818.1387999999999</v>
       </c>
       <c r="G181" t="n">
+        <v>1.866333333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.866716666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7305,29 @@
         <v>616432.0122999999</v>
       </c>
       <c r="G182" t="n">
+        <v>1.864733333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.866266666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7351,29 @@
         <v>282819.8222</v>
       </c>
       <c r="G183" t="n">
+        <v>1.863066666666668</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.865966666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7397,29 @@
         <v>1427295</v>
       </c>
       <c r="G184" t="n">
+        <v>1.861400000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.865799999999999</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7443,29 @@
         <v>3016506.3616</v>
       </c>
       <c r="G185" t="n">
+        <v>1.859933333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.865666666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7489,27 @@
         <v>1467074</v>
       </c>
       <c r="G186" t="n">
+        <v>1.858400000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.865283333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7533,27 @@
         <v>47312.9062</v>
       </c>
       <c r="G187" t="n">
+        <v>1.856800000000001</v>
+      </c>
+      <c r="H187" t="n">
         <v>1.864866666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7577,27 @@
         <v>811529</v>
       </c>
       <c r="G188" t="n">
+        <v>1.855266666666668</v>
+      </c>
+      <c r="H188" t="n">
         <v>1.864483333333332</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7621,27 @@
         <v>3416462.88</v>
       </c>
       <c r="G189" t="n">
+        <v>1.854533333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.864366666666666</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7665,27 @@
         <v>3364437.88</v>
       </c>
       <c r="G190" t="n">
+        <v>1.854000000000001</v>
+      </c>
+      <c r="H190" t="n">
         <v>1.864233333333332</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7709,27 @@
         <v>631030.88</v>
       </c>
       <c r="G191" t="n">
+        <v>1.854066666666668</v>
+      </c>
+      <c r="H191" t="n">
         <v>1.864099999999999</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7753,27 @@
         <v>116000</v>
       </c>
       <c r="G192" t="n">
+        <v>1.854066666666668</v>
+      </c>
+      <c r="H192" t="n">
         <v>1.863933333333332</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7797,27 @@
         <v>2260403.88</v>
       </c>
       <c r="G193" t="n">
+        <v>1.854133333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>1.864033333333332</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7841,27 @@
         <v>3027419.88</v>
       </c>
       <c r="G194" t="n">
+        <v>1.855266666666668</v>
+      </c>
+      <c r="H194" t="n">
         <v>1.863916666666665</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7885,27 @@
         <v>2638074.88</v>
       </c>
       <c r="G195" t="n">
+        <v>1.855400000000001</v>
+      </c>
+      <c r="H195" t="n">
         <v>1.863549999999999</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7929,27 @@
         <v>53885.5803</v>
       </c>
       <c r="G196" t="n">
+        <v>1.856533333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>1.863449999999999</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7973,27 @@
         <v>6013.7799</v>
       </c>
       <c r="G197" t="n">
+        <v>1.856666666666668</v>
+      </c>
+      <c r="H197" t="n">
         <v>1.863099999999999</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8017,27 @@
         <v>730821</v>
       </c>
       <c r="G198" t="n">
+        <v>1.856933333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>1.862949999999999</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8061,27 @@
         <v>2408085</v>
       </c>
       <c r="G199" t="n">
+        <v>1.857066666666668</v>
+      </c>
+      <c r="H199" t="n">
         <v>1.862783333333332</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8105,27 @@
         <v>2997222.76</v>
       </c>
       <c r="G200" t="n">
+        <v>1.858066666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>1.862866666666665</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8149,27 @@
         <v>1420703</v>
       </c>
       <c r="G201" t="n">
+        <v>1.858000000000001</v>
+      </c>
+      <c r="H201" t="n">
         <v>1.862699999999999</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8193,27 @@
         <v>2843169.88</v>
       </c>
       <c r="G202" t="n">
+        <v>1.858200000000001</v>
+      </c>
+      <c r="H202" t="n">
         <v>1.862583333333332</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8237,27 @@
         <v>958927.7136</v>
       </c>
       <c r="G203" t="n">
+        <v>1.858266666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>1.862449999999999</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8281,27 @@
         <v>17431.759</v>
       </c>
       <c r="G204" t="n">
+        <v>1.856866666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>1.862416666666665</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8325,27 @@
         <v>77889.9979</v>
       </c>
       <c r="G205" t="n">
+        <v>1.856933333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>1.862299999999999</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8369,27 @@
         <v>189784.8948</v>
       </c>
       <c r="G206" t="n">
+        <v>1.856466666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>1.862049999999999</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8413,27 @@
         <v>558548.5991</v>
       </c>
       <c r="G207" t="n">
+        <v>1.855933333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>1.861783333333332</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8457,27 @@
         <v>44968.1723</v>
       </c>
       <c r="G208" t="n">
+        <v>1.854266666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>1.861483333333332</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8501,27 @@
         <v>1716589.0569</v>
       </c>
       <c r="G209" t="n">
+        <v>1.8524</v>
+      </c>
+      <c r="H209" t="n">
         <v>1.861149999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8545,27 @@
         <v>298025.4364</v>
       </c>
       <c r="G210" t="n">
+        <v>1.851466666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>1.860783333333332</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,22 +8589,27 @@
         <v>29307.922</v>
       </c>
       <c r="G211" t="n">
+        <v>1.849466666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>1.860399999999999</v>
       </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="K211" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7802,26 +8633,29 @@
         <v>12338.4704</v>
       </c>
       <c r="G212" t="n">
+        <v>1.8486</v>
+      </c>
+      <c r="H212" t="n">
         <v>1.860033333333332</v>
       </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.839</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
         <v>1.839</v>
       </c>
-      <c r="L212" t="inlineStr">
+      <c r="L212" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7845,26 +8679,29 @@
         <v>161408.7757</v>
       </c>
       <c r="G213" t="n">
+        <v>1.8486</v>
+      </c>
+      <c r="H213" t="n">
         <v>1.859899999999999</v>
       </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
         <v>1.84</v>
       </c>
-      <c r="K213" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="L213" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,26 +8725,27 @@
         <v>2798698.88</v>
       </c>
       <c r="G214" t="n">
+        <v>1.848466666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>1.859716666666666</v>
       </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="K214" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7931,24 +8769,27 @@
         <v>1436087.88</v>
       </c>
       <c r="G215" t="n">
+        <v>1.847333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>1.859316666666666</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7972,24 +8813,27 @@
         <v>1503458</v>
       </c>
       <c r="G216" t="n">
+        <v>1.847266666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>1.858916666666666</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8013,24 +8857,27 @@
         <v>2974045.88</v>
       </c>
       <c r="G217" t="n">
+        <v>1.8482</v>
+      </c>
+      <c r="H217" t="n">
         <v>1.858816666666666</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8054,24 +8901,27 @@
         <v>2777523.76</v>
       </c>
       <c r="G218" t="n">
+        <v>1.8492</v>
+      </c>
+      <c r="H218" t="n">
         <v>1.858716666666666</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8095,24 +8945,27 @@
         <v>792403</v>
       </c>
       <c r="G219" t="n">
+        <v>1.8494</v>
+      </c>
+      <c r="H219" t="n">
         <v>1.858316666666666</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8136,24 +8989,27 @@
         <v>1684699.643394787</v>
       </c>
       <c r="G220" t="n">
+        <v>1.851133333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>1.858549999999999</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8177,24 +9033,27 @@
         <v>1365300.1088</v>
       </c>
       <c r="G221" t="n">
+        <v>1.851666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>1.858199999999999</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,24 +9077,27 @@
         <v>1905879.4225</v>
       </c>
       <c r="G222" t="n">
+        <v>1.852133333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>1.857833333333332</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8259,24 +9121,27 @@
         <v>3154781.88</v>
       </c>
       <c r="G223" t="n">
+        <v>1.854466666666666</v>
+      </c>
+      <c r="H223" t="n">
         <v>1.857966666666665</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8300,24 +9165,27 @@
         <v>1388416.88</v>
       </c>
       <c r="G224" t="n">
+        <v>1.8552</v>
+      </c>
+      <c r="H224" t="n">
         <v>1.857566666666665</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L224" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8341,24 +9209,27 @@
         <v>1000</v>
       </c>
       <c r="G225" t="n">
+        <v>1.855933333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>1.857266666666665</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8382,25 +9253,28 @@
         <v>270</v>
       </c>
       <c r="G226" t="n">
+        <v>1.858533333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>1.857716666666665</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="L226" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M226" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1.016207177814029</v>
+      <c r="N226" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -8423,18 +9297,27 @@
         <v>713715</v>
       </c>
       <c r="G227" t="n">
+        <v>1.859266666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>1.857316666666665</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8458,18 +9341,27 @@
         <v>3917211.190969116</v>
       </c>
       <c r="G228" t="n">
+        <v>1.859066666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>1.856916666666665</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8493,18 +9385,27 @@
         <v>2769083.88</v>
       </c>
       <c r="G229" t="n">
+        <v>1.859066666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>1.856499999999998</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8528,18 +9429,27 @@
         <v>1123156.0761</v>
       </c>
       <c r="G230" t="n">
+        <v>1.8584</v>
+      </c>
+      <c r="H230" t="n">
         <v>1.855933333333332</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8563,18 +9473,27 @@
         <v>540</v>
       </c>
       <c r="G231" t="n">
+        <v>1.8596</v>
+      </c>
+      <c r="H231" t="n">
         <v>1.855816666666665</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8598,18 +9517,467 @@
         <v>282.4687</v>
       </c>
       <c r="G232" t="n">
+        <v>1.858466666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>1.855416666666665</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F233" t="n">
+        <v>23373.9844</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1.857333333333334</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1.855016666666665</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3278384.2475</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1.857466666666667</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1.854566666666665</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2659508.88</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.855666666666667</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1.854433333333332</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1511181.3667</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1.856133333333334</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1.854583333333331</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1960056.6252</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1.856800000000001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1.854733333333332</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3065585.88</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1.855133333333334</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.854499999999998</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2940291.76</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1.855800000000001</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1.854666666666665</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1474883.88</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.857666666666667</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1.855116666666665</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3347847.88</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.857666666666667</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.855549999999998</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2726404.88</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.858333333333334</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.855716666666665</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest AOA.xlsx
+++ b/BackTest/2020-01-15 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N300"/>
+  <dimension ref="A1:M300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>8357064.5933</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>8351841.740159162</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>8353088.850059162</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>8381431.781959162</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>5247572.881059162</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>8596478.761059161</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>6745815.881059161</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>9585622.761059161</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>12790810.52105916</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>12485495.02105916</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>8927491.14105916</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>5636762.26105916</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>8669220.14105916</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>8671580.14105916</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>8420259.41295916</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>8364668.77355916</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>8049783.93035916</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>8297951.130559159</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>8123397.680059159</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>7666385.788859159</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>4547974.152159157</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>4547974.152159157</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>7511018.032159157</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-5586136.285440843</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9060,22 +8338,15 @@
         <v>-13716941.20054084</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K241" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9100,2470 +8371,2305 @@
         <v>-12289646.20054084</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="J242" t="n">
         <v>1.85</v>
       </c>
-      <c r="K242" t="n">
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3016506.3616</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-9273139.83894084</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" t="n">
         <v>1.851</v>
       </c>
-      <c r="L242" t="inlineStr">
+      <c r="J243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1467074</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-9273139.83894084</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F245" t="n">
+        <v>47312.9062</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-9320452.745140839</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F246" t="n">
+        <v>811529</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-8508923.745140839</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C243" t="n">
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E247" t="n">
         <v>1.853</v>
       </c>
-      <c r="D243" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E243" t="n">
+      <c r="F247" t="n">
+        <v>3416462.88</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-5092460.865140839</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
         <v>1.853</v>
       </c>
-      <c r="F243" t="n">
-        <v>3016506.3616</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-9273139.83894084</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K243" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D248" t="n">
         <v>1.869</v>
       </c>
-      <c r="C244" t="n">
+      <c r="E248" t="n">
         <v>1.853</v>
       </c>
-      <c r="D244" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E244" t="n">
+      <c r="F248" t="n">
+        <v>3364437.88</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-8456898.745140839</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
         <v>1.853</v>
       </c>
-      <c r="F244" t="n">
-        <v>1467074</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-9273139.83894084</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D245" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="E245" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F245" t="n">
-        <v>47312.9062</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-9320452.745140839</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F249" t="n">
+        <v>631030.88</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-8456898.745140839</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C246" t="n">
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F250" t="n">
+        <v>116000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-8572898.745140839</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2</v>
+      </c>
+      <c r="I250" t="n">
         <v>1.853</v>
       </c>
-      <c r="D246" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E246" t="n">
+      <c r="J250" t="n">
         <v>1.853</v>
       </c>
-      <c r="F246" t="n">
-        <v>811529</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-8508923.745140839</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D247" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E247" t="n">
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E251" t="n">
         <v>1.853</v>
       </c>
-      <c r="F247" t="n">
-        <v>3416462.88</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-5092460.865140839</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="F251" t="n">
+        <v>2260403.88</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-6312494.865140839</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E252" t="n">
         <v>1.853</v>
       </c>
-      <c r="C248" t="n">
+      <c r="F252" t="n">
+        <v>3027419.88</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-6312494.865140839</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="J252" t="n">
         <v>1.853</v>
       </c>
-      <c r="D248" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E248" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F248" t="n">
-        <v>3364437.88</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-8456898.745140839</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C249" t="n">
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
         <v>1.853</v>
       </c>
-      <c r="D249" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E249" t="n">
+      <c r="C253" t="n">
         <v>1.853</v>
       </c>
-      <c r="F249" t="n">
-        <v>631030.88</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-8456898.745140839</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="D253" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2638074.88</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-8950569.745140839</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D250" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="E250" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F250" t="n">
-        <v>116000</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-8572898.745140839</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F254" t="n">
+        <v>53885.5803</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-8896684.16484084</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E251" t="n">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
         <v>1.853</v>
       </c>
-      <c r="F251" t="n">
-        <v>2260403.88</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-6312494.865140839</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="C255" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F255" t="n">
+        <v>6013.7799</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-8902697.944740839</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
         <v>1.868</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C256" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D256" t="n">
         <v>1.868</v>
       </c>
-      <c r="D252" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E252" t="n">
+      <c r="E256" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F256" t="n">
+        <v>730821</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-8171876.944740839</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
         <v>1.853</v>
       </c>
-      <c r="F252" t="n">
-        <v>3027419.88</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-6312494.865140839</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C257" t="n">
         <v>1.853</v>
       </c>
-      <c r="C253" t="n">
+      <c r="D257" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E257" t="n">
         <v>1.853</v>
       </c>
-      <c r="D253" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E253" t="n">
+      <c r="F257" t="n">
+        <v>2408085</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-10579961.94474084</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
         <v>1.853</v>
       </c>
-      <c r="F253" t="n">
-        <v>2638074.88</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-8950569.745140839</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C254" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D254" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E254" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="F254" t="n">
-        <v>53885.5803</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-8896684.16484084</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E258" t="n">
         <v>1.851</v>
       </c>
-      <c r="L254" t="inlineStr">
+      <c r="F258" t="n">
+        <v>2997222.76</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-7582739.18474084</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1420703</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-9003442.18474084</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
         <v>1.853</v>
       </c>
-      <c r="C255" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D255" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="E255" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F255" t="n">
-        <v>6013.7799</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-8902697.944740839</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
         <v>1.868</v>
       </c>
-      <c r="C256" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D256" t="n">
+      <c r="C260" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D260" t="n">
         <v>1.868</v>
       </c>
-      <c r="E256" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F256" t="n">
-        <v>730821</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-8171876.944740839</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E260" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2843169.88</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-6160272.30474084</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C257" t="n">
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F261" t="n">
+        <v>958927.7136</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-7119200.01834084</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
         <v>1.853</v>
       </c>
-      <c r="D257" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E257" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F257" t="n">
-        <v>2408085</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-10579961.94474084</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C258" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D258" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E258" t="n">
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
         <v>1.851</v>
       </c>
-      <c r="F258" t="n">
-        <v>2997222.76</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-7582739.18474084</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
+      <c r="C262" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D262" t="n">
         <v>1.851</v>
       </c>
-      <c r="L258" t="inlineStr">
+      <c r="E262" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="F262" t="n">
+        <v>17431.759</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-7136631.77734084</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D259" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E259" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1420703</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-9003442.18474084</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="F263" t="n">
+        <v>77889.9979</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-7058741.77944084</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C260" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D260" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E260" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F260" t="n">
-        <v>2843169.88</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-6160272.30474084</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="F264" t="n">
+        <v>189784.8948</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-7248526.67424084</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="C261" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D261" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="E261" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F261" t="n">
-        <v>958927.7136</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-7119200.01834084</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="F265" t="n">
+        <v>558548.5991</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-7807075.27334084</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="C262" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="D262" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="E262" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="F262" t="n">
-        <v>17431.759</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-7136631.77734084</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="F266" t="n">
+        <v>44968.1723</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-7852043.44564084</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="C263" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D263" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="E263" t="n">
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D267" t="n">
         <v>1.845</v>
       </c>
-      <c r="F263" t="n">
-        <v>77889.9979</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-7058741.77944084</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E267" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1716589.0569</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-9568632.50254084</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="C264" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="D264" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="E264" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="F264" t="n">
-        <v>189784.8948</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-7248526.67424084</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="F268" t="n">
+        <v>298025.4364</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-9866657.93894084</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>1.845</v>
-      </c>
-      <c r="C265" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="D265" t="n">
-        <v>1.845</v>
-      </c>
-      <c r="E265" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="F265" t="n">
-        <v>558548.5991</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-7807075.27334084</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="F269" t="n">
+        <v>29307.922</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-9866657.93894084</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>1.843</v>
-      </c>
-      <c r="C266" t="n">
-        <v>1.843</v>
-      </c>
-      <c r="D266" t="n">
-        <v>1.843</v>
-      </c>
-      <c r="E266" t="n">
-        <v>1.843</v>
-      </c>
-      <c r="F266" t="n">
-        <v>44968.1723</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-7852043.44564084</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F270" t="n">
+        <v>12338.4704</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-9854319.46854084</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="C267" t="n">
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F271" t="n">
+        <v>161408.7757</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-9692910.692840841</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+      <c r="I271" t="n">
         <v>1.84</v>
       </c>
-      <c r="D267" t="n">
-        <v>1.845</v>
-      </c>
-      <c r="E267" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F267" t="n">
-        <v>1716589.0569</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-9568632.50254084</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="J271" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C268" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="D268" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E268" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="F268" t="n">
-        <v>298025.4364</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-9866657.93894084</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C272" t="n">
         <v>1.851</v>
       </c>
-      <c r="L268" t="inlineStr">
+      <c r="D272" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2798698.88</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-12491609.57284084</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="D269" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="E269" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="F269" t="n">
-        <v>29307.922</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-9866657.93894084</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C273" t="n">
         <v>1.851</v>
       </c>
-      <c r="L269" t="inlineStr">
+      <c r="D273" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1436087.88</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-12491609.57284084</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="D270" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E270" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F270" t="n">
-        <v>12338.4704</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-9854319.46854084</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="K270" t="n">
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C274" t="n">
         <v>1.851</v>
       </c>
-      <c r="L270" t="inlineStr">
+      <c r="D274" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1503458</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-12491609.57284084</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="C271" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D271" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="E271" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F271" t="n">
-        <v>161408.7757</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-9692910.692840841</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K271" t="n">
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E275" t="n">
         <v>1.851</v>
       </c>
-      <c r="L271" t="inlineStr">
+      <c r="F275" t="n">
+        <v>2974045.88</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-9517563.692840841</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
         <v>1.869</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C276" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E276" t="n">
         <v>1.851</v>
       </c>
-      <c r="D272" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E272" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F272" t="n">
-        <v>2798698.88</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-12491609.57284084</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L272" t="inlineStr">
+      <c r="F276" t="n">
+        <v>2777523.76</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-9517563.692840841</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
         <v>1.869</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C277" t="n">
         <v>1.851</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D277" t="n">
         <v>1.869</v>
       </c>
-      <c r="E273" t="n">
+      <c r="E277" t="n">
         <v>1.851</v>
       </c>
-      <c r="F273" t="n">
-        <v>1436087.88</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-12491609.57284084</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="F277" t="n">
+        <v>792403</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-10309966.69284084</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
         <v>1.869</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C278" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1684699.643394787</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-8625267.049446054</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2</v>
+      </c>
+      <c r="I278" t="n">
         <v>1.851</v>
       </c>
-      <c r="D274" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E274" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1503458</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-12491609.57284084</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L274" t="inlineStr">
+      <c r="J278" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C275" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D275" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E275" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F275" t="n">
-        <v>2974045.88</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-9517563.692840841</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1365300.1088</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-9990567.158246053</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C276" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D276" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E276" t="n">
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
         <v>1.851</v>
       </c>
-      <c r="F276" t="n">
-        <v>2777523.76</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-9517563.692840841</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
+      <c r="C280" t="n">
         <v>1.851</v>
       </c>
-      <c r="L276" t="inlineStr">
+      <c r="D280" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1905879.4225</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-11896446.58074605</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C277" t="n">
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E281" t="n">
         <v>1.851</v>
       </c>
-      <c r="D277" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E277" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F277" t="n">
-        <v>792403</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-10309966.69284084</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="F281" t="n">
+        <v>3154781.88</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-8741664.700746052</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C278" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D278" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E278" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1684699.643394787</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-8625267.049446054</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C282" t="n">
         <v>1.851</v>
       </c>
-      <c r="L278" t="inlineStr">
+      <c r="D282" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1388416.88</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-10130081.58074605</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="C279" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D279" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="E279" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F279" t="n">
-        <v>1365300.1088</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-9990567.158246053</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-10131081.58074605</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="C280" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="D280" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="E280" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F280" t="n">
-        <v>1905879.4225</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-11896446.58074605</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F284" t="n">
+        <v>270</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-10130811.58074605</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
         <v>1.878</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C285" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="D285" t="n">
         <v>1.878</v>
       </c>
-      <c r="D281" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E281" t="n">
+      <c r="E285" t="n">
         <v>1.851</v>
       </c>
-      <c r="F281" t="n">
-        <v>3154781.88</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-8741664.700746052</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="F285" t="n">
+        <v>713715</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-10844526.58074605</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C282" t="n">
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C286" t="n">
         <v>1.851</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D286" t="n">
         <v>1.878</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E286" t="n">
         <v>1.851</v>
       </c>
-      <c r="F282" t="n">
-        <v>1388416.88</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-10130081.58074605</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="F286" t="n">
+        <v>3917211.190969116</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-10844526.58074605</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C283" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D283" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E283" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F283" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-10131081.58074605</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C287" t="n">
         <v>1.851</v>
       </c>
-      <c r="L283" t="inlineStr">
+      <c r="D287" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2769083.88</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-10844526.58074605</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
         <v>1.878</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C288" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D288" t="n">
         <v>1.878</v>
       </c>
-      <c r="D284" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E284" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F284" t="n">
-        <v>270</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-10130811.58074605</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="E288" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1123156.0761</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-11967682.65684605</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C285" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="D285" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E285" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F285" t="n">
-        <v>713715</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-10844526.58074605</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F289" t="n">
+        <v>540</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-11967142.65684605</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C286" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="D286" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E286" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F286" t="n">
-        <v>3917211.190969116</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-10844526.58074605</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L286" t="inlineStr">
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F290" t="n">
+        <v>282.4687</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-11967425.12554605</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C287" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E287" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F287" t="n">
-        <v>2769083.88</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-10844526.58074605</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L287" t="inlineStr">
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F291" t="n">
+        <v>23373.9844</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-11967425.12554605</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C288" t="n">
-        <v>1.841</v>
-      </c>
-      <c r="D288" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E288" t="n">
-        <v>1.841</v>
-      </c>
-      <c r="F288" t="n">
-        <v>1123156.0761</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-11967682.65684605</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3278384.2475</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-8689040.878046049</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
         <v>1.869</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C293" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D293" t="n">
         <v>1.869</v>
       </c>
-      <c r="D289" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E289" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F289" t="n">
-        <v>540</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-11967142.65684605</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L289" t="inlineStr">
+      <c r="E293" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2659508.88</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-8689040.878046049</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E294" t="n">
         <v>1.852</v>
       </c>
-      <c r="C290" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="E290" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F290" t="n">
-        <v>282.4687</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-11967425.12554605</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L290" t="inlineStr">
+      <c r="F294" t="n">
+        <v>1511181.3667</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-7177859.511346049</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C291" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D291" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="E291" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F291" t="n">
-        <v>23373.9844</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-11967425.12554605</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L291" t="inlineStr">
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1960056.6252</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-7177859.511346049</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C292" t="n">
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C296" t="n">
         <v>1.853</v>
       </c>
-      <c r="D292" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E292" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F292" t="n">
-        <v>3278384.2475</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-8689040.878046049</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="D296" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3065585.88</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-10243445.39134605</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C293" t="n">
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2940291.76</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-7303153.631346049</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
         <v>1.853</v>
       </c>
-      <c r="D293" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E293" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F293" t="n">
-        <v>2659508.88</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-8689040.878046049</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C294" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D294" t="n">
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="C298" t="n">
         <v>1.878</v>
       </c>
-      <c r="E294" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1511181.3667</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-7177859.511346049</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L294" t="inlineStr">
+      <c r="D298" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1474883.88</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-5828269.751346049</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E299" t="n">
         <v>1.861</v>
       </c>
-      <c r="C295" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D295" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E295" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F295" t="n">
-        <v>1960056.6252</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-7177859.511346049</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L295" t="inlineStr">
+      <c r="F299" t="n">
+        <v>3347847.88</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-5828269.751346049</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
         <v>1.861</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C300" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2726404.88</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-8554674.631346049</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
         <v>1.853</v>
       </c>
-      <c r="D296" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E296" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F296" t="n">
-        <v>3065585.88</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-10243445.39134605</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L296" t="inlineStr">
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C297" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D297" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E297" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F297" t="n">
-        <v>2940291.76</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-7303153.631346049</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="C298" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D298" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E298" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1474883.88</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-5828269.751346049</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C299" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D299" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E299" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F299" t="n">
-        <v>3347847.88</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-5828269.751346049</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="C300" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D300" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E300" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F300" t="n">
-        <v>2726404.88</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-8554674.631346049</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest AOA.xlsx
+++ b/BackTest/2020-01-15 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8538639.0781</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8238639.0781</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8257064.5933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8357064.5933</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>8351841.740159162</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>8353088.850059162</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>8381431.781959162</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5247572.881059162</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8596478.761059161</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>6745815.881059161</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>8911993.761059161</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>12223284.64105916</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9585622.761059161</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12790810.52105916</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>12485495.02105916</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>10723512.02105916</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>8927491.14105916</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>5636762.26105916</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>8669220.14105916</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>8671580.14105916</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>8420259.41295916</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>8338446.20695916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>8364668.77355916</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>8299846.37215916</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>8300116.37215916</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>8049783.93035916</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>8297951.130559159</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>8123397.680059159</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>7666385.788859159</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5580308.989659159</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5580308.989659159</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5430004.785759158</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5430004.785759158</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5129768.466359158</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>4935743.549359158</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>4949938.989059158</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>4960515.403659157</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>4547974.152159157</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>4547974.152159157</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>7511018.032159157</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4114711.152159157</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>4114711.152159157</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>4114711.152159157</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>6469943.032159157</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3416602.152159157</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>3416602.152159157</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-5586136.285440843</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-5585636.285440843</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-5661136.285440843</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-5581136.285440843</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1701051.405440843</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1126273.717059157</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1034731.627940843</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4417825.507940843</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4334675.048640843</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -8338,10 +8338,14 @@
         <v>-13716941.20054084</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1.851</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
@@ -8371,15 +8375,19 @@
         <v>-12289646.20054084</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>1.85</v>
       </c>
       <c r="J242" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+        <v>1.851</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,17 +8416,17 @@
         <v>-9273139.83894084</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>1.851</v>
       </c>
       <c r="J243" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8449,15 +8457,17 @@
         <v>-9273139.83894084</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.853</v>
+      </c>
       <c r="J244" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -8488,15 +8498,17 @@
         <v>-9320452.745140839</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+        <v>1.851</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8525,15 +8537,17 @@
         <v>-8508923.745140839</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J246" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8568,7 +8582,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8607,7 +8621,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8646,7 +8660,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8681,13 +8695,11 @@
         <v>-8572898.745140839</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8722,13 +8734,11 @@
         <v>-6312494.865140839</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8763,13 +8773,11 @@
         <v>-6312494.865140839</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8808,7 +8816,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8843,13 +8851,11 @@
         <v>-8896684.16484084</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8888,7 +8894,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8927,7 +8933,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -8966,7 +8972,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9001,13 +9007,11 @@
         <v>-7582739.18474084</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9046,7 +9050,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9085,7 +9089,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9124,7 +9128,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9163,7 +9167,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9202,7 +9206,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9237,13 +9241,11 @@
         <v>-7248526.67424084</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9282,7 +9284,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9317,13 +9319,11 @@
         <v>-7852043.44564084</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9397,13 +9397,11 @@
         <v>-9866657.93894084</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9442,7 +9440,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9477,13 +9475,11 @@
         <v>-9854319.46854084</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9518,13 +9514,11 @@
         <v>-9692910.692840841</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9563,7 +9557,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9602,7 +9596,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9641,7 +9635,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9680,7 +9674,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9719,7 +9713,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9758,7 +9752,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9793,13 +9787,11 @@
         <v>-8625267.049446054</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
         <v>1.851</v>
-      </c>
-      <c r="J278" t="n">
-        <v>1.853</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9838,7 +9830,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9877,7 +9869,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9916,7 +9908,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9955,7 +9947,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9994,7 +9986,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10033,7 +10025,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10072,7 +10064,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10111,7 +10103,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10150,7 +10142,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10189,7 +10181,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10228,7 +10220,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10267,7 +10259,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10306,7 +10298,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10345,7 +10337,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10384,7 +10376,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10423,7 +10415,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10462,7 +10454,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10501,7 +10493,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10540,7 +10532,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10579,7 +10571,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10618,7 +10610,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10657,7 +10649,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>1.853</v>
+        <v>1.851</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10670,6 +10662,6 @@
       <c r="M300" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest AOA.xlsx
+++ b/BackTest/2020-01-15 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8538639.0781</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8238639.0781</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8257064.5933</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>8351841.740159162</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>8381431.781959162</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5247572.881059162</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8596478.761059161</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>6745815.881059161</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>8911993.761059161</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>12223284.64105916</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9585622.761059161</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12790810.52105916</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>12485495.02105916</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>10723512.02105916</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>8927491.14105916</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>5636762.26105916</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>8669220.14105916</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>8671580.14105916</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>8420259.41295916</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>8338446.20695916</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>8364668.77355916</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>8299846.37215916</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>8300116.37215916</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>8049783.93035916</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>8297951.130559159</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>8123397.680059159</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>7666385.788859159</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5580308.989659159</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5580308.989659159</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5430004.785759158</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5430004.785759158</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5129768.466359158</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>4935743.549359158</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>4949938.989059158</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>4960515.403659157</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>4547974.152159157</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>4547974.152159157</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>7511018.032159157</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4114711.152159157</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>4114711.152159157</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>4114711.152159157</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>6469943.032159157</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3416602.152159157</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>3416602.152159157</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-5586136.285440843</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-5585636.285440843</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-5661136.285440843</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-5581136.285440843</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1701051.405440843</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1126273.717059157</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1364431.552159157</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1349266.162659157</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1354004.424559157</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1353560.425559157</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1351037.741359157</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1034731.627940843</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4417825.507940843</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4334675.048640843</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-5695800.580240843</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-10906883.22474084</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-10879839.22474084</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-10840972.34474084</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-10843407.06434084</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-14288942.88454084</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-13055930.77514084</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8338,14 +8338,10 @@
         <v>-13716941.20054084</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
@@ -8381,13 +8377,9 @@
         <v>1.85</v>
       </c>
       <c r="J242" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1.85</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8416,17 +8408,15 @@
         <v>-9273139.83894084</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>1.851</v>
+        <v>1.85</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8457,17 +8447,15 @@
         <v>-9273139.83894084</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>1.851</v>
+        <v>1.85</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -8501,14 +8489,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8537,19 +8519,11 @@
         <v>-8508923.745140839</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8581,14 +8555,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8617,17 +8585,11 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8656,17 +8618,11 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8698,14 +8654,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8737,14 +8687,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8776,14 +8720,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8812,17 +8750,11 @@
         <v>-8950569.745140839</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8854,14 +8786,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8893,14 +8819,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8929,17 +8849,11 @@
         <v>-8171876.944740839</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8971,14 +8885,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9010,14 +8918,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9049,14 +8951,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9088,14 +8984,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9127,14 +9017,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9166,14 +9050,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9205,14 +9083,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9244,14 +9116,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9283,14 +9149,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9322,14 +9182,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9361,14 +9215,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +9248,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9436,17 +9278,15 @@
         <v>-9866657.93894084</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1.839</v>
+      </c>
       <c r="J269" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.839</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9475,15 +9315,17 @@
         <v>-9854319.46854084</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1.839</v>
+      </c>
       <c r="J270" t="n">
-        <v>1.851</v>
+        <v>1.839</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9514,15 +9356,17 @@
         <v>-9692910.692840841</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1.84</v>
+      </c>
       <c r="J271" t="n">
-        <v>1.851</v>
+        <v>1.839</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9556,14 +9400,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9595,14 +9433,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9634,14 +9466,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9673,14 +9499,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9712,14 +9532,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9751,14 +9565,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9790,14 +9598,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9829,14 +9631,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9868,14 +9664,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9907,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9946,14 +9730,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9985,14 +9763,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10024,14 +9796,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10063,14 +9829,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10102,14 +9862,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10141,14 +9895,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10180,14 +9928,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10219,14 +9961,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10258,14 +9994,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10297,14 +10027,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10336,14 +10060,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10375,14 +10093,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10414,14 +10126,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10453,14 +10159,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10492,14 +10192,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10531,14 +10225,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10570,14 +10258,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10609,14 +10291,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10648,20 +10324,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
       <c r="M300" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest AOA.xlsx
+++ b/BackTest/2020-01-15 BackTest AOA.xlsx
@@ -451,7 +451,7 @@
         <v>10303890.8966</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>11964434.7766</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8590388.896600001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8537064.5933</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8538639.0781</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8238639.0781</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8257064.5933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8357064.5933</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>8351841.740159162</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>8353088.850059162</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>8381431.781959162</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5247572.881059162</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8596478.761059161</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>6745815.881059161</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>8911993.761059161</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>12223284.64105916</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9585622.761059161</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12790810.52105916</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>9858880.14105916</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>12485495.02105916</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>9818257.14105916</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>7934568.141059161</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>8927491.14105916</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>5636762.26105916</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>8669220.14105916</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>8671580.14105916</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>8420259.41295916</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>8339124.48805916</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>8300116.37215916</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>8049783.93035916</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>8297951.130559159</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>8123397.680059159</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>8223397.680059159</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>7666385.788859159</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6266362.579659158</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1349266.162659157</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1354004.424559157</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1353560.425559157</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1351037.741359157</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1747729.740159157</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5550924.436540843</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5558546.518440844</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-5695800.580240843</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-10905096.10704084</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-10906883.22474084</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-10879839.22474084</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-10840972.34474084</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-10843407.06434084</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-14288942.88454084</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-13055930.77514084</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8305,11 +8305,17 @@
         <v>-13434121.37834084</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8344,17 @@
         <v>-13716941.20054084</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8376,10 +8388,12 @@
       <c r="I242" t="n">
         <v>1.85</v>
       </c>
-      <c r="J242" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,15 +8422,15 @@
         <v>-9273139.83894084</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1.85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8450,12 +8464,10 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1.85</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -8490,7 +8502,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +8535,17 @@
         <v>-8508923.745140839</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8556,7 +8578,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +8611,15 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8618,11 +8648,15 @@
         <v>-8456898.745140839</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8655,7 +8689,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8688,7 +8726,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8721,7 +8763,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8750,11 +8796,15 @@
         <v>-8950569.745140839</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8787,7 +8837,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8820,7 +8874,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8849,11 +8907,15 @@
         <v>-8171876.944740839</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8886,7 +8948,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8919,7 +8985,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +9022,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8985,7 +9059,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9018,7 +9096,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9051,7 +9133,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9084,7 +9170,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9117,7 +9207,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9150,7 +9244,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9183,7 +9281,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9216,7 +9318,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9249,7 +9355,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9283,10 +9393,12 @@
       <c r="I269" t="n">
         <v>1.839</v>
       </c>
-      <c r="J269" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9320,12 +9432,10 @@
       <c r="I270" t="n">
         <v>1.839</v>
       </c>
-      <c r="J270" t="n">
-        <v>1.839</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9361,12 +9471,10 @@
       <c r="I271" t="n">
         <v>1.84</v>
       </c>
-      <c r="J271" t="n">
-        <v>1.839</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9397,11 +9505,17 @@
         <v>-12491609.57284084</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9434,7 +9548,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9467,7 +9585,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9500,7 +9622,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9533,7 +9659,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9566,7 +9696,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9599,7 +9733,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9632,7 +9770,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9665,7 +9807,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +9844,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9731,7 +9881,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9764,7 +9918,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9797,7 +9955,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9830,7 +9992,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9863,7 +10029,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9896,7 +10066,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9929,7 +10103,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9962,7 +10140,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9995,7 +10177,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10028,7 +10214,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10061,7 +10251,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10094,7 +10288,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10127,7 +10325,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10160,7 +10362,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10193,7 +10399,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10226,7 +10436,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10259,7 +10473,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10292,7 +10510,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10325,7 +10547,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-15 BackTest AOA.xlsx
+++ b/BackTest/2020-01-15 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3381723.88</v>
       </c>
       <c r="G2" t="n">
-        <v>10303890.8966</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1660543.88</v>
       </c>
       <c r="G3" t="n">
-        <v>11964434.7766</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3374045.88</v>
       </c>
       <c r="G4" t="n">
-        <v>8590388.896600001</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2650016.88</v>
       </c>
       <c r="G5" t="n">
-        <v>8590388.896600001</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>53324.3033</v>
       </c>
       <c r="G6" t="n">
-        <v>8537064.5933</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>35552.6552</v>
       </c>
       <c r="G7" t="n">
-        <v>8537064.5933</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1574.4848</v>
       </c>
       <c r="G8" t="n">
-        <v>8538639.0781</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>300000</v>
       </c>
       <c r="G9" t="n">
-        <v>8238639.0781</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>18425.5152</v>
       </c>
       <c r="G10" t="n">
-        <v>8257064.5933</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>100000</v>
       </c>
       <c r="G11" t="n">
-        <v>8357064.5933</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>5222.853140837697</v>
       </c>
       <c r="G12" t="n">
-        <v>8351841.740159162</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1247.1099</v>
       </c>
       <c r="G13" t="n">
-        <v>8353088.850059162</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>28342.9319</v>
       </c>
       <c r="G14" t="n">
-        <v>8381431.781959162</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3133858.9009</v>
       </c>
       <c r="G15" t="n">
-        <v>5247572.881059162</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3348905.88</v>
       </c>
       <c r="G16" t="n">
-        <v>8596478.761059161</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1850662.88</v>
       </c>
       <c r="G17" t="n">
-        <v>6745815.881059161</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2166177.88</v>
       </c>
       <c r="G18" t="n">
-        <v>8911993.761059161</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3311290.88</v>
       </c>
       <c r="G19" t="n">
-        <v>12223284.64105916</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2637661.88</v>
       </c>
       <c r="G20" t="n">
-        <v>9585622.761059161</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3205187.76</v>
       </c>
       <c r="G21" t="n">
-        <v>12790810.52105916</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2931930.38</v>
       </c>
       <c r="G22" t="n">
-        <v>9858880.14105916</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1248987.88</v>
       </c>
       <c r="G23" t="n">
-        <v>9858880.14105916</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2626614.88</v>
       </c>
       <c r="G24" t="n">
-        <v>12485495.02105916</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2667237.88</v>
       </c>
       <c r="G25" t="n">
-        <v>9818257.14105916</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>627520.88</v>
       </c>
       <c r="G26" t="n">
-        <v>9818257.14105916</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>100006.5632</v>
       </c>
       <c r="G27" t="n">
-        <v>9818257.14105916</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>905254.88</v>
       </c>
       <c r="G28" t="n">
-        <v>10723512.02105916</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2788943.88</v>
       </c>
       <c r="G29" t="n">
-        <v>7934568.141059161</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2766239.4493</v>
       </c>
       <c r="G30" t="n">
-        <v>7934568.141059161</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>992923</v>
       </c>
       <c r="G31" t="n">
-        <v>8927491.14105916</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3290728.88</v>
       </c>
       <c r="G32" t="n">
-        <v>5636762.26105916</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3032457.88</v>
       </c>
       <c r="G33" t="n">
-        <v>8669220.14105916</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2360</v>
       </c>
       <c r="G34" t="n">
-        <v>8671580.14105916</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>251320.7281</v>
       </c>
       <c r="G35" t="n">
-        <v>8420259.41295916</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>81134.9249</v>
       </c>
       <c r="G36" t="n">
-        <v>8339124.48805916</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>169730.8097</v>
       </c>
       <c r="G37" t="n">
-        <v>8339124.48805916</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>72490.33930000001</v>
       </c>
       <c r="G38" t="n">
-        <v>8339124.48805916</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>87509.66069999999</v>
       </c>
       <c r="G39" t="n">
-        <v>8339124.48805916</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>678.2811</v>
       </c>
       <c r="G40" t="n">
-        <v>8338446.20695916</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>26222.5666</v>
       </c>
       <c r="G41" t="n">
-        <v>8364668.77355916</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>64822.4014</v>
       </c>
       <c r="G42" t="n">
-        <v>8299846.37215916</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>270</v>
       </c>
       <c r="G43" t="n">
-        <v>8300116.37215916</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>250332.4418</v>
       </c>
       <c r="G44" t="n">
-        <v>8049783.93035916</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>248167.2002</v>
       </c>
       <c r="G45" t="n">
-        <v>8297951.130559159</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>174553.4505</v>
       </c>
       <c r="G46" t="n">
-        <v>8123397.680059159</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>100000</v>
       </c>
       <c r="G47" t="n">
-        <v>8223397.680059159</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>44392.6461</v>
       </c>
       <c r="G48" t="n">
-        <v>8223397.680059159</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>557011.8912</v>
       </c>
       <c r="G49" t="n">
-        <v>7666385.788859159</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1400023.2092</v>
       </c>
       <c r="G50" t="n">
-        <v>6266362.579659158</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1613451.5273</v>
       </c>
       <c r="G51" t="n">
-        <v>6266362.579659158</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>775613.3292</v>
       </c>
       <c r="G52" t="n">
-        <v>6266362.579659158</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>457789.4493</v>
       </c>
       <c r="G53" t="n">
-        <v>6266362.579659158</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>686053.59</v>
       </c>
       <c r="G54" t="n">
-        <v>5580308.989659159</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1353072.967</v>
       </c>
       <c r="G55" t="n">
-        <v>5580308.989659159</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>150304.2039</v>
       </c>
       <c r="G56" t="n">
-        <v>5430004.785759158</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>45650.9268</v>
       </c>
       <c r="G57" t="n">
-        <v>5430004.785759158</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>300236.3194</v>
       </c>
       <c r="G58" t="n">
-        <v>5129768.466359158</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>194024.917</v>
       </c>
       <c r="G59" t="n">
-        <v>4935743.549359158</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>14195.4397</v>
       </c>
       <c r="G60" t="n">
-        <v>4949938.989059158</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>10576.4146</v>
       </c>
       <c r="G61" t="n">
-        <v>4960515.403659157</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>412541.2515</v>
       </c>
       <c r="G62" t="n">
-        <v>4547974.152159157</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1085068.5</v>
       </c>
       <c r="G63" t="n">
-        <v>4547974.152159157</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2963043.88</v>
       </c>
       <c r="G64" t="n">
-        <v>7511018.032159157</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>3396306.88</v>
       </c>
       <c r="G65" t="n">
-        <v>4114711.152159157</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1555450.88</v>
       </c>
       <c r="G66" t="n">
-        <v>4114711.152159157</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>260000</v>
       </c>
       <c r="G67" t="n">
-        <v>4114711.152159157</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2355231.88</v>
       </c>
       <c r="G68" t="n">
-        <v>6469943.032159157</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3053340.88</v>
       </c>
       <c r="G69" t="n">
-        <v>3416602.152159157</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1196033</v>
       </c>
       <c r="G70" t="n">
-        <v>3416602.152159157</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>9002738.4376</v>
       </c>
       <c r="G71" t="n">
-        <v>-5586136.285440843</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>500</v>
       </c>
       <c r="G72" t="n">
-        <v>-5585636.285440843</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>75500</v>
       </c>
       <c r="G73" t="n">
-        <v>-5661136.285440843</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>80000</v>
       </c>
       <c r="G74" t="n">
-        <v>-5581136.285440843</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3880084.88</v>
       </c>
       <c r="G75" t="n">
-        <v>-1701051.405440843</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>3273964.88</v>
       </c>
       <c r="G76" t="n">
-        <v>1572913.474559157</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1068133.04</v>
       </c>
       <c r="G77" t="n">
-        <v>504780.4345591571</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1666254.88</v>
       </c>
       <c r="G78" t="n">
-        <v>2171035.314559157</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1258603</v>
       </c>
       <c r="G79" t="n">
-        <v>912432.314559157</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>213841.4025</v>
       </c>
       <c r="G80" t="n">
-        <v>1126273.717059157</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>238157.8351</v>
       </c>
       <c r="G81" t="n">
-        <v>1364431.552159157</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>8801.4337</v>
       </c>
       <c r="G82" t="n">
-        <v>1364431.552159157</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>42000</v>
       </c>
       <c r="G83" t="n">
-        <v>1364431.552159157</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>30000</v>
       </c>
       <c r="G84" t="n">
-        <v>1364431.552159157</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>10000</v>
       </c>
       <c r="G85" t="n">
-        <v>1364431.552159157</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>50000</v>
       </c>
       <c r="G86" t="n">
-        <v>1364431.552159157</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>130000</v>
       </c>
       <c r="G87" t="n">
-        <v>1364431.552159157</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>11885.8404</v>
       </c>
       <c r="G88" t="n">
-        <v>1376317.392559157</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>531.2581</v>
       </c>
       <c r="G89" t="n">
-        <v>1376317.392559157</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>9203.5028</v>
       </c>
       <c r="G90" t="n">
-        <v>1376317.392559157</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>796.4972</v>
       </c>
       <c r="G91" t="n">
-        <v>1376317.392559157</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>1376317.392559157</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>7100</v>
       </c>
       <c r="G93" t="n">
-        <v>1369217.392559157</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>1370217.392559157</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>5608.3701</v>
       </c>
       <c r="G95" t="n">
-        <v>1364609.022459157</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>1365609.022459157</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>4199.0813</v>
       </c>
       <c r="G97" t="n">
-        <v>1365609.022459157</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>7000</v>
       </c>
       <c r="G98" t="n">
-        <v>1365609.022459157</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>26342.8598</v>
       </c>
       <c r="G99" t="n">
-        <v>1339266.162659157</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>2447.5256</v>
       </c>
       <c r="G100" t="n">
-        <v>1339266.162659157</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>10000</v>
       </c>
       <c r="G101" t="n">
-        <v>1349266.162659157</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1758.5466</v>
       </c>
       <c r="G102" t="n">
-        <v>1349266.162659157</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>4738.2619</v>
       </c>
       <c r="G103" t="n">
-        <v>1354004.424559157</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>443.999</v>
       </c>
       <c r="G104" t="n">
-        <v>1353560.425559157</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2522.6842</v>
       </c>
       <c r="G105" t="n">
-        <v>1351037.741359157</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>400000</v>
       </c>
       <c r="G106" t="n">
-        <v>1751037.741359157</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>3308.0012</v>
       </c>
       <c r="G107" t="n">
-        <v>1747729.740159157</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>161909.8842</v>
       </c>
       <c r="G108" t="n">
-        <v>1747729.740159157</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1593.0751</v>
       </c>
       <c r="G109" t="n">
-        <v>1747729.740159157</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>115234.3304</v>
       </c>
       <c r="G110" t="n">
-        <v>1747729.740159157</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>63569.7002</v>
       </c>
       <c r="G111" t="n">
-        <v>1747729.740159157</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2782461.3681</v>
       </c>
       <c r="G112" t="n">
-        <v>-1034731.627940843</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>3383093.88</v>
       </c>
       <c r="G113" t="n">
-        <v>-4417825.507940843</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>83150.4593</v>
       </c>
       <c r="G114" t="n">
-        <v>-4334675.048640843</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>795128.4219</v>
       </c>
       <c r="G115" t="n">
-        <v>-3539546.626740843</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>795935</v>
       </c>
       <c r="G116" t="n">
-        <v>-4335481.626740843</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>909.2584000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>-4334572.368340843</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>686571.3567</v>
       </c>
       <c r="G118" t="n">
-        <v>-5021143.725040844</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>10353.5084</v>
       </c>
       <c r="G119" t="n">
-        <v>-5021143.725040844</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>362245.8408</v>
       </c>
       <c r="G120" t="n">
-        <v>-4658897.884240843</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>350.5046</v>
       </c>
       <c r="G121" t="n">
-        <v>-4658547.379640844</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>81350.6908</v>
       </c>
       <c r="G122" t="n">
-        <v>-4739898.070440844</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>4253.2774</v>
       </c>
       <c r="G123" t="n">
-        <v>-4735644.793040844</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>446979.7065</v>
       </c>
       <c r="G124" t="n">
-        <v>-5182624.499540844</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>5000</v>
       </c>
       <c r="G125" t="n">
-        <v>-5182624.499540844</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>20628.1776</v>
       </c>
       <c r="G126" t="n">
-        <v>-5161996.321940844</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1169.2289</v>
       </c>
       <c r="G127" t="n">
-        <v>-5160827.093040843</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>200000</v>
       </c>
       <c r="G128" t="n">
-        <v>-5160827.093040843</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>397535.7177</v>
       </c>
       <c r="G129" t="n">
-        <v>-5558362.810740843</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>33435.9502</v>
       </c>
       <c r="G130" t="n">
-        <v>-5558362.810740843</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>3318.5367</v>
       </c>
       <c r="G131" t="n">
-        <v>-5558362.810740843</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>269.3262</v>
       </c>
       <c r="G132" t="n">
-        <v>-5558632.136940843</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>7707.7004</v>
       </c>
       <c r="G133" t="n">
-        <v>-5550924.436540843</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>292.2996</v>
       </c>
       <c r="G134" t="n">
-        <v>-5550924.436540843</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>2000</v>
       </c>
       <c r="G135" t="n">
-        <v>-5550924.436540843</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>7707.7004</v>
       </c>
       <c r="G136" t="n">
-        <v>-5558632.136940843</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1000</v>
       </c>
       <c r="G137" t="n">
-        <v>-5557632.136940843</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>914.3815</v>
       </c>
       <c r="G138" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>113412.8328</v>
       </c>
       <c r="G139" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1587.1672</v>
       </c>
       <c r="G140" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1311.45</v>
       </c>
       <c r="G141" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>8688.549999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1000</v>
       </c>
       <c r="G143" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>10000</v>
       </c>
       <c r="G144" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>9000</v>
       </c>
       <c r="G145" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1014.9785</v>
       </c>
       <c r="G146" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>1985.0215</v>
       </c>
       <c r="G147" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>32000</v>
       </c>
       <c r="G148" t="n">
-        <v>-5558546.518440844</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>9000</v>
       </c>
       <c r="G149" t="n">
-        <v>-5549546.518440844</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>950405</v>
       </c>
       <c r="G150" t="n">
-        <v>-6499951.518440844</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>140998.5014</v>
       </c>
       <c r="G151" t="n">
-        <v>-6358953.017040843</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>2484.8485</v>
       </c>
       <c r="G152" t="n">
-        <v>-6358953.017040843</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>1776.1982</v>
       </c>
       <c r="G153" t="n">
-        <v>-6358953.017040843</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>1223.8018</v>
       </c>
       <c r="G154" t="n">
-        <v>-6358953.017040843</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>87600.33</v>
       </c>
       <c r="G155" t="n">
-        <v>-6446553.347040843</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>935.7861</v>
       </c>
       <c r="G156" t="n">
-        <v>-6445617.560940843</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>1549184.76</v>
       </c>
       <c r="G157" t="n">
-        <v>-7994802.320940843</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>2783481.76</v>
       </c>
       <c r="G158" t="n">
-        <v>-5211320.560940843</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>2815464.88</v>
       </c>
       <c r="G159" t="n">
-        <v>-8026785.440940843</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>715154</v>
       </c>
       <c r="G160" t="n">
-        <v>-8026785.440940843</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>3401895.88</v>
       </c>
       <c r="G161" t="n">
-        <v>-4624889.560940843</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>1062982</v>
       </c>
       <c r="G162" t="n">
-        <v>-5687871.560940843</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>572.1922</v>
       </c>
       <c r="G163" t="n">
-        <v>-5687299.368740843</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>1934.4157</v>
       </c>
       <c r="G164" t="n">
-        <v>-5689233.784440842</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>105131.9654</v>
       </c>
       <c r="G165" t="n">
-        <v>-5689233.784440842</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>196435.3675</v>
       </c>
       <c r="G166" t="n">
-        <v>-5689233.784440842</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>5057.2174</v>
       </c>
       <c r="G167" t="n">
-        <v>-5694291.001840843</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>1509.5784</v>
       </c>
       <c r="G168" t="n">
-        <v>-5695800.580240843</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>2962.2587</v>
       </c>
       <c r="G169" t="n">
-        <v>-5692838.321540843</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>1001.5442</v>
       </c>
       <c r="G170" t="n">
-        <v>-5693839.865740843</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>2099302.3307</v>
       </c>
       <c r="G171" t="n">
-        <v>-7793142.196440843</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>38593.0532</v>
       </c>
       <c r="G172" t="n">
-        <v>-7831735.249640843</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>38593.0532</v>
       </c>
       <c r="G173" t="n">
-        <v>-7793142.196440843</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>138319.0894</v>
       </c>
       <c r="G174" t="n">
-        <v>-7931461.285840843</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>24878.0251</v>
       </c>
       <c r="G175" t="n">
-        <v>-7906583.260740843</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>972817.88</v>
       </c>
       <c r="G176" t="n">
-        <v>-8879401.140740843</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>3322743.88</v>
       </c>
       <c r="G177" t="n">
-        <v>-12202145.02074084</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>2951455.88</v>
       </c>
       <c r="G178" t="n">
-        <v>-12202145.02074084</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>35350.6829</v>
       </c>
       <c r="G179" t="n">
-        <v>-12166794.33784084</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>851593.9039</v>
       </c>
       <c r="G180" t="n">
-        <v>-12166794.33784084</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>99067.4301</v>
       </c>
       <c r="G181" t="n">
-        <v>-12265861.76794084</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>1005.5463</v>
       </c>
       <c r="G182" t="n">
-        <v>-12266867.31424084</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1017952.1288</v>
       </c>
       <c r="G183" t="n">
-        <v>-12266867.31424084</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>2160844.76</v>
       </c>
       <c r="G184" t="n">
-        <v>-10106022.55424084</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>2368.8886</v>
       </c>
       <c r="G185" t="n">
-        <v>-10103653.66564084</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>2568.2329</v>
       </c>
       <c r="G186" t="n">
-        <v>-10106221.89854084</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>14816.7587</v>
       </c>
       <c r="G187" t="n">
-        <v>-10106221.89854084</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>100485</v>
       </c>
       <c r="G188" t="n">
-        <v>-10206706.89854084</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>1206779.7619</v>
       </c>
       <c r="G189" t="n">
-        <v>-10206706.89854084</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>151000</v>
       </c>
       <c r="G190" t="n">
-        <v>-10055706.89854084</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>100000</v>
       </c>
       <c r="G191" t="n">
-        <v>-10055706.89854084</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>30000</v>
       </c>
       <c r="G192" t="n">
-        <v>-10025706.89854084</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>30000</v>
       </c>
       <c r="G193" t="n">
-        <v>-10025706.89854084</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>1274.9566</v>
       </c>
       <c r="G194" t="n">
-        <v>-10025706.89854084</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>79843.03909999999</v>
       </c>
       <c r="G195" t="n">
-        <v>-10105549.93764084</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>79843.03909999999</v>
       </c>
       <c r="G196" t="n">
-        <v>-10185392.97674084</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>1939497.523</v>
       </c>
       <c r="G197" t="n">
-        <v>-10185392.97674084</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>334147.9042</v>
       </c>
       <c r="G198" t="n">
-        <v>-10185392.97674084</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>122376.5715</v>
       </c>
       <c r="G199" t="n">
-        <v>-10307769.54824084</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>54071.5292</v>
       </c>
       <c r="G200" t="n">
-        <v>-10307769.54824084</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>214822.9444</v>
       </c>
       <c r="G201" t="n">
-        <v>-10307769.54824084</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>401033.0658</v>
       </c>
       <c r="G202" t="n">
-        <v>-10708802.61404084</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>771.7353000000001</v>
       </c>
       <c r="G203" t="n">
-        <v>-10708030.87874084</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>770730.7517</v>
       </c>
       <c r="G204" t="n">
-        <v>-10708030.87874084</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>692337.4493</v>
       </c>
       <c r="G205" t="n">
-        <v>-11400368.32804084</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>79945.96030000001</v>
       </c>
       <c r="G206" t="n">
-        <v>-11320422.36774084</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>1301.7353</v>
       </c>
       <c r="G207" t="n">
-        <v>-11321724.10304084</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>1080</v>
       </c>
       <c r="G208" t="n">
-        <v>-11320644.10304084</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>412603.996</v>
       </c>
       <c r="G209" t="n">
-        <v>-10908040.10704084</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>107976.5982</v>
       </c>
       <c r="G210" t="n">
-        <v>-10908040.10704084</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>21947.0838</v>
       </c>
       <c r="G211" t="n">
-        <v>-10908040.10704084</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>1349398.1499</v>
       </c>
       <c r="G212" t="n">
-        <v>-10908040.10704084</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>2944</v>
       </c>
       <c r="G213" t="n">
-        <v>-10905096.10704084</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>801</v>
       </c>
       <c r="G214" t="n">
-        <v>-10905096.10704084</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>311</v>
       </c>
       <c r="G215" t="n">
-        <v>-10905096.10704084</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>905</v>
       </c>
       <c r="G216" t="n">
-        <v>-10905096.10704084</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>419664.5333333333</v>
       </c>
       <c r="G217" t="n">
-        <v>-10905096.10704084</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>1787.1177</v>
       </c>
       <c r="G218" t="n">
-        <v>-10906883.22474084</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>27044</v>
       </c>
       <c r="G219" t="n">
-        <v>-10879839.22474084</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>299</v>
       </c>
       <c r="G220" t="n">
-        <v>-10880138.22474084</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>444</v>
       </c>
       <c r="G221" t="n">
-        <v>-10880582.22474084</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>39609.88</v>
       </c>
       <c r="G222" t="n">
-        <v>-10840972.34474084</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>2434.7196</v>
       </c>
       <c r="G223" t="n">
-        <v>-10843407.06434084</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>3445535.8202</v>
       </c>
       <c r="G224" t="n">
-        <v>-14288942.88454084</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>2865126.76</v>
       </c>
       <c r="G225" t="n">
-        <v>-11423816.12454084</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>2293846.88</v>
       </c>
       <c r="G226" t="n">
-        <v>-11423816.12454084</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>1059.1882</v>
       </c>
       <c r="G227" t="n">
-        <v>-11422756.93634084</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>79259.8312</v>
       </c>
       <c r="G228" t="n">
-        <v>-11502016.76754084</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>1478.5956</v>
       </c>
       <c r="G229" t="n">
-        <v>-11500538.17194084</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>4610.9778</v>
       </c>
       <c r="G230" t="n">
-        <v>-11500538.17194084</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>910.4266</v>
       </c>
       <c r="G231" t="n">
-        <v>-11500538.17194084</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>862.2353000000001</v>
       </c>
       <c r="G232" t="n">
-        <v>-11499675.93664084</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>609169</v>
       </c>
       <c r="G233" t="n">
-        <v>-12108844.93664084</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>947085.8385</v>
       </c>
       <c r="G234" t="n">
-        <v>-13055930.77514084</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>680998.88</v>
       </c>
       <c r="G235" t="n">
-        <v>-13055930.77514084</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>251955.6523</v>
       </c>
       <c r="G236" t="n">
-        <v>-12803975.12284084</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>14532.382</v>
       </c>
       <c r="G237" t="n">
-        <v>-12818507.50484084</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>5083.547</v>
       </c>
       <c r="G238" t="n">
-        <v>-12818507.50484084</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>818.1387999999999</v>
       </c>
       <c r="G239" t="n">
-        <v>-12817689.36604084</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,24 +7583,15 @@
         <v>616432.0122999999</v>
       </c>
       <c r="G240" t="n">
-        <v>-13434121.37834084</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8341,24 +7613,15 @@
         <v>282819.8222</v>
       </c>
       <c r="G241" t="n">
-        <v>-13716941.20054084</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8380,24 +7643,15 @@
         <v>1427295</v>
       </c>
       <c r="G242" t="n">
-        <v>-12289646.20054084</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8419,24 +7673,15 @@
         <v>3016506.3616</v>
       </c>
       <c r="G243" t="n">
-        <v>-9273139.83894084</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8458,22 +7703,15 @@
         <v>1467074</v>
       </c>
       <c r="G244" t="n">
-        <v>-9273139.83894084</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8495,22 +7733,15 @@
         <v>47312.9062</v>
       </c>
       <c r="G245" t="n">
-        <v>-9320452.745140839</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8532,24 +7763,15 @@
         <v>811529</v>
       </c>
       <c r="G246" t="n">
-        <v>-8508923.745140839</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8571,22 +7793,15 @@
         <v>3416462.88</v>
       </c>
       <c r="G247" t="n">
-        <v>-5092460.865140839</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8608,22 +7823,15 @@
         <v>3364437.88</v>
       </c>
       <c r="G248" t="n">
-        <v>-8456898.745140839</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8645,22 +7853,15 @@
         <v>631030.88</v>
       </c>
       <c r="G249" t="n">
-        <v>-8456898.745140839</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8682,22 +7883,15 @@
         <v>116000</v>
       </c>
       <c r="G250" t="n">
-        <v>-8572898.745140839</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8719,22 +7913,15 @@
         <v>2260403.88</v>
       </c>
       <c r="G251" t="n">
-        <v>-6312494.865140839</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8756,22 +7943,15 @@
         <v>3027419.88</v>
       </c>
       <c r="G252" t="n">
-        <v>-6312494.865140839</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8793,22 +7973,15 @@
         <v>2638074.88</v>
       </c>
       <c r="G253" t="n">
-        <v>-8950569.745140839</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8830,22 +8003,15 @@
         <v>53885.5803</v>
       </c>
       <c r="G254" t="n">
-        <v>-8896684.16484084</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8867,22 +8033,15 @@
         <v>6013.7799</v>
       </c>
       <c r="G255" t="n">
-        <v>-8902697.944740839</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8904,22 +8063,15 @@
         <v>730821</v>
       </c>
       <c r="G256" t="n">
-        <v>-8171876.944740839</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8941,22 +8093,15 @@
         <v>2408085</v>
       </c>
       <c r="G257" t="n">
-        <v>-10579961.94474084</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8978,22 +8123,15 @@
         <v>2997222.76</v>
       </c>
       <c r="G258" t="n">
-        <v>-7582739.18474084</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9015,22 +8153,15 @@
         <v>1420703</v>
       </c>
       <c r="G259" t="n">
-        <v>-9003442.18474084</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9052,22 +8183,15 @@
         <v>2843169.88</v>
       </c>
       <c r="G260" t="n">
-        <v>-6160272.30474084</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9089,22 +8213,15 @@
         <v>958927.7136</v>
       </c>
       <c r="G261" t="n">
-        <v>-7119200.01834084</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9126,22 +8243,15 @@
         <v>17431.759</v>
       </c>
       <c r="G262" t="n">
-        <v>-7136631.77734084</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9163,22 +8273,15 @@
         <v>77889.9979</v>
       </c>
       <c r="G263" t="n">
-        <v>-7058741.77944084</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9200,22 +8303,15 @@
         <v>189784.8948</v>
       </c>
       <c r="G264" t="n">
-        <v>-7248526.67424084</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9237,22 +8333,15 @@
         <v>558548.5991</v>
       </c>
       <c r="G265" t="n">
-        <v>-7807075.27334084</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9274,22 +8363,15 @@
         <v>44968.1723</v>
       </c>
       <c r="G266" t="n">
-        <v>-7852043.44564084</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9311,22 +8393,15 @@
         <v>1716589.0569</v>
       </c>
       <c r="G267" t="n">
-        <v>-9568632.50254084</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9348,22 +8423,15 @@
         <v>298025.4364</v>
       </c>
       <c r="G268" t="n">
-        <v>-9866657.93894084</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9385,24 +8453,15 @@
         <v>29307.922</v>
       </c>
       <c r="G269" t="n">
-        <v>-9866657.93894084</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9424,24 +8483,19 @@
         <v>12338.4704</v>
       </c>
       <c r="G270" t="n">
-        <v>-9854319.46854084</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>1.839</v>
       </c>
       <c r="I270" t="n">
         <v>1.839</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9463,24 +8517,23 @@
         <v>161408.7757</v>
       </c>
       <c r="G271" t="n">
-        <v>-9692910.692840841</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>1.84</v>
       </c>
       <c r="I271" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
+        <v>1.839</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9502,24 +8555,23 @@
         <v>2798698.88</v>
       </c>
       <c r="G272" t="n">
-        <v>-12491609.57284084</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>1.854</v>
       </c>
       <c r="I272" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
+        <v>1.839</v>
+      </c>
+      <c r="J272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9541,22 +8593,15 @@
         <v>1436087.88</v>
       </c>
       <c r="G273" t="n">
-        <v>-12491609.57284084</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9578,22 +8623,15 @@
         <v>1503458</v>
       </c>
       <c r="G274" t="n">
-        <v>-12491609.57284084</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9615,22 +8653,15 @@
         <v>2974045.88</v>
       </c>
       <c r="G275" t="n">
-        <v>-9517563.692840841</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9652,22 +8683,15 @@
         <v>2777523.76</v>
       </c>
       <c r="G276" t="n">
-        <v>-9517563.692840841</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9689,22 +8713,15 @@
         <v>792403</v>
       </c>
       <c r="G277" t="n">
-        <v>-10309966.69284084</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9726,22 +8743,15 @@
         <v>1684699.643394787</v>
       </c>
       <c r="G278" t="n">
-        <v>-8625267.049446054</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9763,22 +8773,15 @@
         <v>1365300.1088</v>
       </c>
       <c r="G279" t="n">
-        <v>-9990567.158246053</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9800,22 +8803,15 @@
         <v>1905879.4225</v>
       </c>
       <c r="G280" t="n">
-        <v>-11896446.58074605</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9837,22 +8833,15 @@
         <v>3154781.88</v>
       </c>
       <c r="G281" t="n">
-        <v>-8741664.700746052</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9874,22 +8863,15 @@
         <v>1388416.88</v>
       </c>
       <c r="G282" t="n">
-        <v>-10130081.58074605</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9911,22 +8893,15 @@
         <v>1000</v>
       </c>
       <c r="G283" t="n">
-        <v>-10131081.58074605</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9948,22 +8923,15 @@
         <v>270</v>
       </c>
       <c r="G284" t="n">
-        <v>-10130811.58074605</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9985,22 +8953,15 @@
         <v>713715</v>
       </c>
       <c r="G285" t="n">
-        <v>-10844526.58074605</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10022,22 +8983,15 @@
         <v>3917211.190969116</v>
       </c>
       <c r="G286" t="n">
-        <v>-10844526.58074605</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10059,22 +9013,15 @@
         <v>2769083.88</v>
       </c>
       <c r="G287" t="n">
-        <v>-10844526.58074605</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10096,22 +9043,15 @@
         <v>1123156.0761</v>
       </c>
       <c r="G288" t="n">
-        <v>-11967682.65684605</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10133,22 +9073,15 @@
         <v>540</v>
       </c>
       <c r="G289" t="n">
-        <v>-11967142.65684605</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10170,22 +9103,15 @@
         <v>282.4687</v>
       </c>
       <c r="G290" t="n">
-        <v>-11967425.12554605</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10207,22 +9133,15 @@
         <v>23373.9844</v>
       </c>
       <c r="G291" t="n">
-        <v>-11967425.12554605</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10244,22 +9163,15 @@
         <v>3278384.2475</v>
       </c>
       <c r="G292" t="n">
-        <v>-8689040.878046049</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10281,22 +9193,15 @@
         <v>2659508.88</v>
       </c>
       <c r="G293" t="n">
-        <v>-8689040.878046049</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10318,22 +9223,15 @@
         <v>1511181.3667</v>
       </c>
       <c r="G294" t="n">
-        <v>-7177859.511346049</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10355,22 +9253,15 @@
         <v>1960056.6252</v>
       </c>
       <c r="G295" t="n">
-        <v>-7177859.511346049</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10392,22 +9283,15 @@
         <v>3065585.88</v>
       </c>
       <c r="G296" t="n">
-        <v>-10243445.39134605</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10429,22 +9313,15 @@
         <v>2940291.76</v>
       </c>
       <c r="G297" t="n">
-        <v>-7303153.631346049</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10466,22 +9343,15 @@
         <v>1474883.88</v>
       </c>
       <c r="G298" t="n">
-        <v>-5828269.751346049</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10503,22 +9373,15 @@
         <v>3347847.88</v>
       </c>
       <c r="G299" t="n">
-        <v>-5828269.751346049</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10540,22 +9403,15 @@
         <v>2726404.88</v>
       </c>
       <c r="G300" t="n">
-        <v>-8554674.631346049</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
